--- a/集計20181016.xlsx
+++ b/集計20181016.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\match\PycharmProjects\Sotsuken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D1FA10-5470-4A7F-BF08-CD183B2850C1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3386BB42-960C-47BE-8586-8C4AFEB9C673}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3220" xr2:uid="{69F4FD2F-B8EF-4900-AE97-79688CD6DD43}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
   <si>
     <t>セクション</t>
     <phoneticPr fontId="1"/>
@@ -160,6 +161,21 @@
   </si>
   <si>
     <t>列 4</t>
+  </si>
+  <si>
+    <t>難易度評価平均</t>
+  </si>
+  <si>
+    <t>跳躍割合</t>
+  </si>
+  <si>
+    <t>上向跳躍割合</t>
+  </si>
+  <si>
+    <t>下降跳躍割合</t>
+  </si>
+  <si>
+    <t>音域</t>
   </si>
 </sst>
 </file>
@@ -503,7 +519,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -801,7 +816,2016 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>難易度評価平均</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.33</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-89AC-48FC-A497-BE4C53D67876}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="550664896"/>
+        <c:axId val="550661288"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$22:$D$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>粉雪</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>S</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.83</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>列 1</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:gradFill rotWithShape="1">
+                      <a:gsLst>
+                        <a:gs pos="0">
+                          <a:schemeClr val="accent1">
+                            <a:satMod val="103000"/>
+                            <a:lumMod val="102000"/>
+                            <a:tint val="94000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="50000">
+                          <a:schemeClr val="accent1">
+                            <a:satMod val="110000"/>
+                            <a:lumMod val="100000"/>
+                            <a:shade val="100000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="100000">
+                          <a:schemeClr val="accent1">
+                            <a:lumMod val="99000"/>
+                            <a:satMod val="120000"/>
+                            <a:shade val="78000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                      </a:gsLst>
+                      <a:lin ang="5400000" scaled="0"/>
+                    </a:gradFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$1:$H$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="4"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>列 1</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>列 2</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>列 3</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>列 4</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>1.407962963</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>1.201481481</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>15</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>9</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>10</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>10</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>12</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>17</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>6</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>6</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>9</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>28</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>25</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>12</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>7</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>10</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>8</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>12</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>12</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>10</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>9</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>17</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>14</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>27</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>12</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>14</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>13</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>5</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>16</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>22</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>18</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>12</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>18</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>15</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>10</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>0</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>42</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>9</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>13</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>5</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>16</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>21</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>0</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>14</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>27</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>11</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>19</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>20</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>4</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>9</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>2</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>11</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>13</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>8</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>5</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>15</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>上向跳躍割合</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>下降跳躍割合</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>音域</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$22:$H$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-89AC-48FC-A497-BE4C53D67876}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$23:$D$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>粉雪</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>S</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.83</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>列 2</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:gradFill rotWithShape="1">
+                      <a:gsLst>
+                        <a:gs pos="0">
+                          <a:schemeClr val="accent2">
+                            <a:satMod val="103000"/>
+                            <a:lumMod val="102000"/>
+                            <a:tint val="94000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="50000">
+                          <a:schemeClr val="accent2">
+                            <a:satMod val="110000"/>
+                            <a:lumMod val="100000"/>
+                            <a:shade val="100000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="100000">
+                          <a:schemeClr val="accent2">
+                            <a:lumMod val="99000"/>
+                            <a:satMod val="120000"/>
+                            <a:shade val="78000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                      </a:gsLst>
+                      <a:lin ang="5400000" scaled="0"/>
+                    </a:gradFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$1:$H$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="4"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>列 1</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>列 2</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>列 3</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>列 4</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>1.407962963</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>1.201481481</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>15</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>9</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>10</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>10</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>12</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>17</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>6</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>6</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>9</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>28</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>25</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>12</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>7</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>10</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>8</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>12</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>12</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>10</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>9</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>17</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>14</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>27</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>12</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>14</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>13</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>5</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>16</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>22</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>18</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>12</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>18</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>15</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>10</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>0</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>42</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>9</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>13</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>5</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>16</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>21</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>0</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>14</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>27</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>11</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>19</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>20</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>4</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>9</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>2</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>11</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>13</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>8</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>5</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>15</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>上向跳躍割合</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>下降跳躍割合</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>音域</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$23:$H$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0.49741714287675043</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-89AC-48FC-A497-BE4C53D67876}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$24:$D$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>粉雪</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>S</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.83</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>列 3</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:gradFill rotWithShape="1">
+                      <a:gsLst>
+                        <a:gs pos="0">
+                          <a:schemeClr val="accent3">
+                            <a:satMod val="103000"/>
+                            <a:lumMod val="102000"/>
+                            <a:tint val="94000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="50000">
+                          <a:schemeClr val="accent3">
+                            <a:satMod val="110000"/>
+                            <a:lumMod val="100000"/>
+                            <a:shade val="100000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="100000">
+                          <a:schemeClr val="accent3">
+                            <a:lumMod val="99000"/>
+                            <a:satMod val="120000"/>
+                            <a:shade val="78000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                      </a:gsLst>
+                      <a:lin ang="5400000" scaled="0"/>
+                    </a:gradFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$1:$H$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="4"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>列 1</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>列 2</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>列 3</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>列 4</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>1.407962963</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>1.201481481</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>15</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>9</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>10</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>10</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>12</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>17</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>6</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>6</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>9</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>28</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>25</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>12</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>7</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>10</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>8</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>12</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>12</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>10</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>9</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>17</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>14</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>27</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>12</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>14</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>13</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>5</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>16</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>22</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>18</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>12</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>18</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>15</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>10</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>0</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>42</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>9</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>13</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>5</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>16</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>21</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>0</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>14</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>27</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>11</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>19</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>20</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>4</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>9</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>2</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>11</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>13</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>8</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>5</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>15</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>上向跳躍割合</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>下降跳躍割合</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>音域</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$24:$H$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0.37512926829179577</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.58743406566330192</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-89AC-48FC-A497-BE4C53D67876}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$25:$D$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>粉雪</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>S</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.83</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>列 4</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:gradFill rotWithShape="1">
+                      <a:gsLst>
+                        <a:gs pos="0">
+                          <a:schemeClr val="accent4">
+                            <a:satMod val="103000"/>
+                            <a:lumMod val="102000"/>
+                            <a:tint val="94000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="50000">
+                          <a:schemeClr val="accent4">
+                            <a:satMod val="110000"/>
+                            <a:lumMod val="100000"/>
+                            <a:shade val="100000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="100000">
+                          <a:schemeClr val="accent4">
+                            <a:lumMod val="99000"/>
+                            <a:satMod val="120000"/>
+                            <a:shade val="78000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                      </a:gsLst>
+                      <a:lin ang="5400000" scaled="0"/>
+                    </a:gradFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$1:$H$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="4"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>列 1</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>列 2</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>列 3</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>列 4</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>1.407962963</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>1.201481481</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>15</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>9</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>10</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>10</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>12</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>17</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>6</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>6</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>9</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>28</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>25</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>12</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>7</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>10</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>8</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>12</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>12</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>10</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>9</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>17</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>14</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>27</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>12</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>14</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>13</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>5</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>16</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>22</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>18</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>12</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>18</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>15</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>10</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>0</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>42</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>9</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>13</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>5</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>16</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>21</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>0</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>14</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>27</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>11</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>19</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>20</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>4</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>9</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>2</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>11</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>13</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>8</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>5</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>15</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>上向跳躍割合</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>下降跳躍割合</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>音域</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$25:$H$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0.2861346312331462</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.70373128780207561</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-0.16080569976918399</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-89AC-48FC-A497-BE4C53D67876}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="550664896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>難易度評価平均</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="550661288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="550661288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>音域（半音）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="550664896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1357,6 +3381,485 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1390,6 +3893,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="グラフ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D50BDD9C-B39F-45B6-AED3-D03977587F73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1694,11 +4233,125 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85334EC0-AADE-4BAA-BF29-1F5719F4A0CB}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.49741714287675043</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.37512926829179577</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.58743406566330192</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.2861346312331462</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.70373128780207561</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-0.16080569976918399</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-0.27553349895604706</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-1.6024902413363792E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.27730270597298456</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-0.26990611170219514</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82D0823-C23B-471A-9061-24EEDF7AA46D}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1752,6 +4405,9 @@
       <c r="F2">
         <v>5</v>
       </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
@@ -1772,6 +4428,9 @@
       <c r="F3">
         <v>11</v>
       </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
@@ -1792,6 +4451,9 @@
       <c r="F4">
         <v>4</v>
       </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
@@ -1812,6 +4474,9 @@
       <c r="F5">
         <v>11</v>
       </c>
+      <c r="G5">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
@@ -1832,6 +4497,9 @@
       <c r="F6">
         <v>0</v>
       </c>
+      <c r="G6">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
@@ -1852,6 +4520,9 @@
       <c r="F7">
         <v>5</v>
       </c>
+      <c r="G7">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
@@ -1872,6 +4543,9 @@
       <c r="F8">
         <v>42</v>
       </c>
+      <c r="G8">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
@@ -1892,6 +4566,9 @@
       <c r="F9">
         <v>15</v>
       </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
@@ -1912,6 +4589,9 @@
       <c r="F10">
         <v>18</v>
       </c>
+      <c r="G10">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
@@ -1932,6 +4612,9 @@
       <c r="F11">
         <v>5</v>
       </c>
+      <c r="G11">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
@@ -1952,6 +4635,9 @@
       <c r="F12">
         <v>12</v>
       </c>
+      <c r="G12">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
@@ -1972,6 +4658,9 @@
       <c r="F13">
         <v>17</v>
       </c>
+      <c r="G13">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
@@ -1992,6 +4681,9 @@
       <c r="F14">
         <v>12</v>
       </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
@@ -2012,6 +4704,9 @@
       <c r="F15">
         <v>10</v>
       </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
@@ -2032,6 +4727,9 @@
       <c r="F16">
         <v>25</v>
       </c>
+      <c r="G16">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
@@ -2052,6 +4750,9 @@
       <c r="F17">
         <v>6</v>
       </c>
+      <c r="G17">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
@@ -2072,6 +4773,9 @@
       <c r="F18">
         <v>12</v>
       </c>
+      <c r="G18">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
@@ -2091,6 +4795,9 @@
       </c>
       <c r="F19">
         <v>9</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">

--- a/集計20181016.xlsx
+++ b/集計20181016.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\match\PycharmProjects\Sotsuken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3386BB42-960C-47BE-8586-8C4AFEB9C673}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D525975-B9C8-40BE-B2D3-8C912CD48736}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3220" xr2:uid="{69F4FD2F-B8EF-4900-AE97-79688CD6DD43}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3220" activeTab="1" xr2:uid="{69F4FD2F-B8EF-4900-AE97-79688CD6DD43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="30">
   <si>
     <t>セクション</t>
     <phoneticPr fontId="1"/>
@@ -176,6 +176,24 @@
   </si>
   <si>
     <t>音域</t>
+  </si>
+  <si>
+    <t>WPCS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なじみやすさ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おぼえてるかどうか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列 5</t>
+  </si>
+  <si>
+    <t>列 6</t>
   </si>
 </sst>
 </file>
@@ -1095,19 +1113,7 @@
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>粉雪</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>S</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2.83</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>列 1</c:v>
-                      </c:pt>
+                      <c:ptCount val="1"/>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
@@ -1167,225 +1173,194 @@
                       </c:ext>
                     </c:extLst>
                     <c:multiLvlStrCache>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="21"/>
                       <c:lvl>
                         <c:pt idx="0">
-                          <c:v>列 1</c:v>
+                          <c:v>WPCS</c:v>
                         </c:pt>
                         <c:pt idx="1">
-                          <c:v>列 2</c:v>
+                          <c:v>1.25</c:v>
                         </c:pt>
                         <c:pt idx="2">
-                          <c:v>列 3</c:v>
+                          <c:v>1.31</c:v>
                         </c:pt>
                         <c:pt idx="3">
+                          <c:v>1.63</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>1.16</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>1.22</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>1.43</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>1.33</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>1.37</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>1.45</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>0.99</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>1.1</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>1.28</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>1.53</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
+                          <c:v>1.39</c:v>
+                        </c:pt>
+                        <c:pt idx="15">
+                          <c:v>1.53</c:v>
+                        </c:pt>
+                        <c:pt idx="16">
+                          <c:v>1.03</c:v>
+                        </c:pt>
+                        <c:pt idx="17">
+                          <c:v>1.23</c:v>
+                        </c:pt>
+                        <c:pt idx="18">
+                          <c:v>1.48</c:v>
+                        </c:pt>
+                        <c:pt idx="20">
                           <c:v>列 4</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
-                          <c:v>1.407962963</c:v>
+                          <c:v>音域</c:v>
                         </c:pt>
                         <c:pt idx="1">
-                          <c:v>1.201481481</c:v>
+                          <c:v>15</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>13</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>9</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>19</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>14</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>16</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>9</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>10</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>12</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>16</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>14</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>14</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>10</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
+                          <c:v>8</c:v>
+                        </c:pt>
+                        <c:pt idx="15">
+                          <c:v>12</c:v>
+                        </c:pt>
+                        <c:pt idx="16">
+                          <c:v>9</c:v>
+                        </c:pt>
+                        <c:pt idx="17">
+                          <c:v>17</c:v>
+                        </c:pt>
+                        <c:pt idx="18">
+                          <c:v>10</c:v>
+                        </c:pt>
+                        <c:pt idx="20">
+                          <c:v>列 3</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
-                          <c:v>15</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>9</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>10</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>10</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>12</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>17</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>6</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>6</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>9</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>28</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>25</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>12</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>7</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>10</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>8</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>12</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>12</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>10</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>9</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>17</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>14</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>27</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>12</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>14</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>13</c:v>
+                          <c:v>下降跳躍割合</c:v>
                         </c:pt>
                         <c:pt idx="1">
                           <c:v>5</c:v>
                         </c:pt>
                         <c:pt idx="2">
-                          <c:v>16</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>22</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
+                          <c:v>11</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>4</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>11</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>0</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>5</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>42</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>15</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
                           <c:v>18</c:v>
                         </c:pt>
-                        <c:pt idx="2">
+                        <c:pt idx="10">
+                          <c:v>5</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
                           <c:v>12</c:v>
                         </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>18</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>15</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
+                        <c:pt idx="12">
+                          <c:v>17</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>12</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
                           <c:v>10</c:v>
                         </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>0</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>42</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
+                        <c:pt idx="15">
+                          <c:v>25</c:v>
+                        </c:pt>
+                        <c:pt idx="16">
+                          <c:v>6</c:v>
+                        </c:pt>
+                        <c:pt idx="17">
+                          <c:v>12</c:v>
+                        </c:pt>
+                        <c:pt idx="18">
                           <c:v>9</c:v>
                         </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>13</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>5</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>16</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>21</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>0</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>14</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>27</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>11</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>19</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>20</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>4</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>9</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>2</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>11</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>13</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>8</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>5</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>15</c:v>
+                        <c:pt idx="19">
+                          <c:v>1.201481481</c:v>
+                        </c:pt>
+                        <c:pt idx="20">
+                          <c:v>列 2</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -1393,10 +1368,64 @@
                           <c:v>上向跳躍割合</c:v>
                         </c:pt>
                         <c:pt idx="1">
-                          <c:v>下降跳躍割合</c:v>
+                          <c:v>8</c:v>
                         </c:pt>
                         <c:pt idx="2">
-                          <c:v>音域</c:v>
+                          <c:v>2</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>20</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>27</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>21</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>13</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>0</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>18</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>22</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>13</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>27</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>9</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>12</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
+                          <c:v>7</c:v>
+                        </c:pt>
+                        <c:pt idx="15">
+                          <c:v>28</c:v>
+                        </c:pt>
+                        <c:pt idx="16">
+                          <c:v>6</c:v>
+                        </c:pt>
+                        <c:pt idx="17">
+                          <c:v>10</c:v>
+                        </c:pt>
+                        <c:pt idx="18">
+                          <c:v>15</c:v>
+                        </c:pt>
+                        <c:pt idx="19">
+                          <c:v>1.407962963</c:v>
+                        </c:pt>
+                        <c:pt idx="20">
+                          <c:v>列 1</c:v>
                         </c:pt>
                       </c:lvl>
                     </c:multiLvlStrCache>
@@ -1434,7 +1463,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$23:$D$23</c15:sqref>
@@ -1442,19 +1471,7 @@
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>粉雪</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>S</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2.83</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>列 2</c:v>
-                      </c:pt>
+                      <c:ptCount val="1"/>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
@@ -1506,7 +1523,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$1:$H$21</c15:sqref>
@@ -1514,225 +1531,194 @@
                       </c:ext>
                     </c:extLst>
                     <c:multiLvlStrCache>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="21"/>
                       <c:lvl>
                         <c:pt idx="0">
-                          <c:v>列 1</c:v>
+                          <c:v>WPCS</c:v>
                         </c:pt>
                         <c:pt idx="1">
-                          <c:v>列 2</c:v>
+                          <c:v>1.25</c:v>
                         </c:pt>
                         <c:pt idx="2">
-                          <c:v>列 3</c:v>
+                          <c:v>1.31</c:v>
                         </c:pt>
                         <c:pt idx="3">
+                          <c:v>1.63</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>1.16</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>1.22</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>1.43</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>1.33</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>1.37</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>1.45</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>0.99</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>1.1</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>1.28</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>1.53</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
+                          <c:v>1.39</c:v>
+                        </c:pt>
+                        <c:pt idx="15">
+                          <c:v>1.53</c:v>
+                        </c:pt>
+                        <c:pt idx="16">
+                          <c:v>1.03</c:v>
+                        </c:pt>
+                        <c:pt idx="17">
+                          <c:v>1.23</c:v>
+                        </c:pt>
+                        <c:pt idx="18">
+                          <c:v>1.48</c:v>
+                        </c:pt>
+                        <c:pt idx="20">
                           <c:v>列 4</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
-                          <c:v>1.407962963</c:v>
+                          <c:v>音域</c:v>
                         </c:pt>
                         <c:pt idx="1">
-                          <c:v>1.201481481</c:v>
+                          <c:v>15</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>13</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>9</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>19</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>14</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>16</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>9</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>10</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>12</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>16</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>14</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>14</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>10</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
+                          <c:v>8</c:v>
+                        </c:pt>
+                        <c:pt idx="15">
+                          <c:v>12</c:v>
+                        </c:pt>
+                        <c:pt idx="16">
+                          <c:v>9</c:v>
+                        </c:pt>
+                        <c:pt idx="17">
+                          <c:v>17</c:v>
+                        </c:pt>
+                        <c:pt idx="18">
+                          <c:v>10</c:v>
+                        </c:pt>
+                        <c:pt idx="20">
+                          <c:v>列 3</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
-                          <c:v>15</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>9</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>10</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>10</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>12</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>17</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>6</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>6</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>9</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>28</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>25</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>12</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>7</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>10</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>8</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>12</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>12</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>10</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>9</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>17</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>14</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>27</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>12</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>14</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>13</c:v>
+                          <c:v>下降跳躍割合</c:v>
                         </c:pt>
                         <c:pt idx="1">
                           <c:v>5</c:v>
                         </c:pt>
                         <c:pt idx="2">
-                          <c:v>16</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>22</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
+                          <c:v>11</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>4</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>11</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>0</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>5</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>42</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>15</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
                           <c:v>18</c:v>
                         </c:pt>
-                        <c:pt idx="2">
+                        <c:pt idx="10">
+                          <c:v>5</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
                           <c:v>12</c:v>
                         </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>18</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>15</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
+                        <c:pt idx="12">
+                          <c:v>17</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>12</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
                           <c:v>10</c:v>
                         </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>0</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>42</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
+                        <c:pt idx="15">
+                          <c:v>25</c:v>
+                        </c:pt>
+                        <c:pt idx="16">
+                          <c:v>6</c:v>
+                        </c:pt>
+                        <c:pt idx="17">
+                          <c:v>12</c:v>
+                        </c:pt>
+                        <c:pt idx="18">
                           <c:v>9</c:v>
                         </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>13</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>5</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>16</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>21</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>0</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>14</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>27</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>11</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>19</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>20</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>4</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>9</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>2</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>11</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>13</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>8</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>5</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>15</c:v>
+                        <c:pt idx="19">
+                          <c:v>1.201481481</c:v>
+                        </c:pt>
+                        <c:pt idx="20">
+                          <c:v>列 2</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -1740,10 +1726,64 @@
                           <c:v>上向跳躍割合</c:v>
                         </c:pt>
                         <c:pt idx="1">
-                          <c:v>下降跳躍割合</c:v>
+                          <c:v>8</c:v>
                         </c:pt>
                         <c:pt idx="2">
-                          <c:v>音域</c:v>
+                          <c:v>2</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>20</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>27</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>21</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>13</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>0</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>18</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>22</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>13</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>27</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>9</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>12</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
+                          <c:v>7</c:v>
+                        </c:pt>
+                        <c:pt idx="15">
+                          <c:v>28</c:v>
+                        </c:pt>
+                        <c:pt idx="16">
+                          <c:v>6</c:v>
+                        </c:pt>
+                        <c:pt idx="17">
+                          <c:v>10</c:v>
+                        </c:pt>
+                        <c:pt idx="18">
+                          <c:v>15</c:v>
+                        </c:pt>
+                        <c:pt idx="19">
+                          <c:v>1.407962963</c:v>
+                        </c:pt>
+                        <c:pt idx="20">
+                          <c:v>列 1</c:v>
                         </c:pt>
                       </c:lvl>
                     </c:multiLvlStrCache>
@@ -1751,7 +1791,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$23:$H$23</c15:sqref>
@@ -1771,7 +1811,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-89AC-48FC-A497-BE4C53D67876}"/>
                   </c:ext>
@@ -1784,7 +1824,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$24:$D$24</c15:sqref>
@@ -1792,19 +1832,7 @@
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>粉雪</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>S</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2.83</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>列 3</c:v>
-                      </c:pt>
+                      <c:ptCount val="1"/>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
@@ -1856,7 +1884,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$1:$H$21</c15:sqref>
@@ -1864,225 +1892,194 @@
                       </c:ext>
                     </c:extLst>
                     <c:multiLvlStrCache>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="21"/>
                       <c:lvl>
                         <c:pt idx="0">
-                          <c:v>列 1</c:v>
+                          <c:v>WPCS</c:v>
                         </c:pt>
                         <c:pt idx="1">
-                          <c:v>列 2</c:v>
+                          <c:v>1.25</c:v>
                         </c:pt>
                         <c:pt idx="2">
-                          <c:v>列 3</c:v>
+                          <c:v>1.31</c:v>
                         </c:pt>
                         <c:pt idx="3">
+                          <c:v>1.63</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>1.16</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>1.22</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>1.43</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>1.33</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>1.37</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>1.45</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>0.99</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>1.1</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>1.28</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>1.53</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
+                          <c:v>1.39</c:v>
+                        </c:pt>
+                        <c:pt idx="15">
+                          <c:v>1.53</c:v>
+                        </c:pt>
+                        <c:pt idx="16">
+                          <c:v>1.03</c:v>
+                        </c:pt>
+                        <c:pt idx="17">
+                          <c:v>1.23</c:v>
+                        </c:pt>
+                        <c:pt idx="18">
+                          <c:v>1.48</c:v>
+                        </c:pt>
+                        <c:pt idx="20">
                           <c:v>列 4</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
-                          <c:v>1.407962963</c:v>
+                          <c:v>音域</c:v>
                         </c:pt>
                         <c:pt idx="1">
-                          <c:v>1.201481481</c:v>
+                          <c:v>15</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>13</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>9</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>19</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>14</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>16</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>9</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>10</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>12</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>16</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>14</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>14</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>10</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
+                          <c:v>8</c:v>
+                        </c:pt>
+                        <c:pt idx="15">
+                          <c:v>12</c:v>
+                        </c:pt>
+                        <c:pt idx="16">
+                          <c:v>9</c:v>
+                        </c:pt>
+                        <c:pt idx="17">
+                          <c:v>17</c:v>
+                        </c:pt>
+                        <c:pt idx="18">
+                          <c:v>10</c:v>
+                        </c:pt>
+                        <c:pt idx="20">
+                          <c:v>列 3</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
-                          <c:v>15</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>9</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>10</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>10</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>12</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>17</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>6</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>6</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>9</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>28</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>25</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>12</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>7</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>10</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>8</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>12</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>12</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>10</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>9</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>17</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>14</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>27</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>12</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>14</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>13</c:v>
+                          <c:v>下降跳躍割合</c:v>
                         </c:pt>
                         <c:pt idx="1">
                           <c:v>5</c:v>
                         </c:pt>
                         <c:pt idx="2">
-                          <c:v>16</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>22</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
+                          <c:v>11</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>4</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>11</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>0</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>5</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>42</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>15</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
                           <c:v>18</c:v>
                         </c:pt>
-                        <c:pt idx="2">
+                        <c:pt idx="10">
+                          <c:v>5</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
                           <c:v>12</c:v>
                         </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>18</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>15</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
+                        <c:pt idx="12">
+                          <c:v>17</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>12</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
                           <c:v>10</c:v>
                         </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>0</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>42</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
+                        <c:pt idx="15">
+                          <c:v>25</c:v>
+                        </c:pt>
+                        <c:pt idx="16">
+                          <c:v>6</c:v>
+                        </c:pt>
+                        <c:pt idx="17">
+                          <c:v>12</c:v>
+                        </c:pt>
+                        <c:pt idx="18">
                           <c:v>9</c:v>
                         </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>13</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>5</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>16</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>21</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>0</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>14</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>27</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>11</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>19</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>20</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>4</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>9</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>2</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>11</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>13</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>8</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>5</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>15</c:v>
+                        <c:pt idx="19">
+                          <c:v>1.201481481</c:v>
+                        </c:pt>
+                        <c:pt idx="20">
+                          <c:v>列 2</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -2090,10 +2087,64 @@
                           <c:v>上向跳躍割合</c:v>
                         </c:pt>
                         <c:pt idx="1">
-                          <c:v>下降跳躍割合</c:v>
+                          <c:v>8</c:v>
                         </c:pt>
                         <c:pt idx="2">
-                          <c:v>音域</c:v>
+                          <c:v>2</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>20</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>27</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>21</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>13</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>0</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>18</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>22</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>13</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>27</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>9</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>12</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
+                          <c:v>7</c:v>
+                        </c:pt>
+                        <c:pt idx="15">
+                          <c:v>28</c:v>
+                        </c:pt>
+                        <c:pt idx="16">
+                          <c:v>6</c:v>
+                        </c:pt>
+                        <c:pt idx="17">
+                          <c:v>10</c:v>
+                        </c:pt>
+                        <c:pt idx="18">
+                          <c:v>15</c:v>
+                        </c:pt>
+                        <c:pt idx="19">
+                          <c:v>1.407962963</c:v>
+                        </c:pt>
+                        <c:pt idx="20">
+                          <c:v>列 1</c:v>
                         </c:pt>
                       </c:lvl>
                     </c:multiLvlStrCache>
@@ -2101,7 +2152,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$24:$H$24</c15:sqref>
@@ -2124,7 +2175,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-89AC-48FC-A497-BE4C53D67876}"/>
                   </c:ext>
@@ -2137,7 +2188,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$25:$D$25</c15:sqref>
@@ -2145,19 +2196,7 @@
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>粉雪</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>S</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2.83</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>列 4</c:v>
-                      </c:pt>
+                      <c:ptCount val="1"/>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
@@ -2209,7 +2248,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$1:$H$21</c15:sqref>
@@ -2217,225 +2256,194 @@
                       </c:ext>
                     </c:extLst>
                     <c:multiLvlStrCache>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="21"/>
                       <c:lvl>
                         <c:pt idx="0">
-                          <c:v>列 1</c:v>
+                          <c:v>WPCS</c:v>
                         </c:pt>
                         <c:pt idx="1">
-                          <c:v>列 2</c:v>
+                          <c:v>1.25</c:v>
                         </c:pt>
                         <c:pt idx="2">
-                          <c:v>列 3</c:v>
+                          <c:v>1.31</c:v>
                         </c:pt>
                         <c:pt idx="3">
+                          <c:v>1.63</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>1.16</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>1.22</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>1.43</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>1.33</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>1.37</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>1.45</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>0.99</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>1.1</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>1.28</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>1.53</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
+                          <c:v>1.39</c:v>
+                        </c:pt>
+                        <c:pt idx="15">
+                          <c:v>1.53</c:v>
+                        </c:pt>
+                        <c:pt idx="16">
+                          <c:v>1.03</c:v>
+                        </c:pt>
+                        <c:pt idx="17">
+                          <c:v>1.23</c:v>
+                        </c:pt>
+                        <c:pt idx="18">
+                          <c:v>1.48</c:v>
+                        </c:pt>
+                        <c:pt idx="20">
                           <c:v>列 4</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
-                          <c:v>1.407962963</c:v>
+                          <c:v>音域</c:v>
                         </c:pt>
                         <c:pt idx="1">
-                          <c:v>1.201481481</c:v>
+                          <c:v>15</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>13</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>9</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>19</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>14</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>16</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>9</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>10</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>12</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>16</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>14</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>14</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>10</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
+                          <c:v>8</c:v>
+                        </c:pt>
+                        <c:pt idx="15">
+                          <c:v>12</c:v>
+                        </c:pt>
+                        <c:pt idx="16">
+                          <c:v>9</c:v>
+                        </c:pt>
+                        <c:pt idx="17">
+                          <c:v>17</c:v>
+                        </c:pt>
+                        <c:pt idx="18">
+                          <c:v>10</c:v>
+                        </c:pt>
+                        <c:pt idx="20">
+                          <c:v>列 3</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
-                          <c:v>15</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>9</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>10</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>10</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>12</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>17</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>6</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>6</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>9</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>28</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>25</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>12</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>7</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>10</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>8</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>12</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>12</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>10</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>9</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>17</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>14</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>27</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>12</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>14</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>13</c:v>
+                          <c:v>下降跳躍割合</c:v>
                         </c:pt>
                         <c:pt idx="1">
                           <c:v>5</c:v>
                         </c:pt>
                         <c:pt idx="2">
-                          <c:v>16</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>22</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
+                          <c:v>11</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>4</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>11</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>0</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>5</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>42</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>15</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
                           <c:v>18</c:v>
                         </c:pt>
-                        <c:pt idx="2">
+                        <c:pt idx="10">
+                          <c:v>5</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
                           <c:v>12</c:v>
                         </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>18</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>15</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
+                        <c:pt idx="12">
+                          <c:v>17</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>12</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
                           <c:v>10</c:v>
                         </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>0</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>42</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
+                        <c:pt idx="15">
+                          <c:v>25</c:v>
+                        </c:pt>
+                        <c:pt idx="16">
+                          <c:v>6</c:v>
+                        </c:pt>
+                        <c:pt idx="17">
+                          <c:v>12</c:v>
+                        </c:pt>
+                        <c:pt idx="18">
                           <c:v>9</c:v>
                         </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>13</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>5</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>16</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>21</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>0</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>14</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>27</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>11</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>19</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>20</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>4</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>9</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>2</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>11</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>13</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>8</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>5</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>15</c:v>
+                        <c:pt idx="19">
+                          <c:v>1.201481481</c:v>
+                        </c:pt>
+                        <c:pt idx="20">
+                          <c:v>列 2</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -2443,10 +2451,64 @@
                           <c:v>上向跳躍割合</c:v>
                         </c:pt>
                         <c:pt idx="1">
-                          <c:v>下降跳躍割合</c:v>
+                          <c:v>8</c:v>
                         </c:pt>
                         <c:pt idx="2">
-                          <c:v>音域</c:v>
+                          <c:v>2</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>20</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>27</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>21</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>13</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>0</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>18</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>22</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>13</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>27</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>9</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>12</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
+                          <c:v>7</c:v>
+                        </c:pt>
+                        <c:pt idx="15">
+                          <c:v>28</c:v>
+                        </c:pt>
+                        <c:pt idx="16">
+                          <c:v>6</c:v>
+                        </c:pt>
+                        <c:pt idx="17">
+                          <c:v>10</c:v>
+                        </c:pt>
+                        <c:pt idx="18">
+                          <c:v>15</c:v>
+                        </c:pt>
+                        <c:pt idx="19">
+                          <c:v>1.407962963</c:v>
+                        </c:pt>
+                        <c:pt idx="20">
+                          <c:v>列 1</c:v>
                         </c:pt>
                       </c:lvl>
                     </c:multiLvlStrCache>
@@ -2454,7 +2516,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$25:$H$25</c15:sqref>
@@ -2480,7 +2542,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-89AC-48FC-A497-BE4C53D67876}"/>
                   </c:ext>
@@ -4236,7 +4298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85334EC0-AADE-4BAA-BF29-1F5719F4A0CB}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -4348,10 +4410,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82D0823-C23B-471A-9061-24EEDF7AA46D}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4363,7 +4425,7 @@
     <col min="7" max="7" width="6.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4385,8 +4447,17 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4408,8 +4479,11 @@
       <c r="G2">
         <v>15</v>
       </c>
+      <c r="H2">
+        <v>1.25</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4431,8 +4505,11 @@
       <c r="G3">
         <v>13</v>
       </c>
+      <c r="H3">
+        <v>1.31</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -4454,8 +4531,11 @@
       <c r="G4">
         <v>9</v>
       </c>
+      <c r="H4">
+        <v>1.63</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -4477,8 +4557,30 @@
       <c r="G5">
         <v>19</v>
       </c>
+      <c r="H5">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -4500,8 +4602,22 @@
       <c r="G6">
         <v>14</v>
       </c>
+      <c r="H6">
+        <v>1.22</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -4523,8 +4639,24 @@
       <c r="G7">
         <v>16</v>
       </c>
+      <c r="H7">
+        <v>1.43</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.49741714287675043</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -4546,8 +4678,26 @@
       <c r="G8">
         <v>9</v>
       </c>
+      <c r="H8">
+        <v>1.33</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.37512926829179577</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.58743406566330192</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -4569,8 +4719,28 @@
       <c r="G9">
         <v>10</v>
       </c>
+      <c r="H9">
+        <v>1.37</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.2861346312331462</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.70373128780207561</v>
+      </c>
+      <c r="O9" s="3">
+        <v>-0.16080569976918399</v>
+      </c>
+      <c r="P9" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -4592,8 +4762,30 @@
       <c r="G10">
         <v>12</v>
       </c>
+      <c r="H10">
+        <v>1.45</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="3">
+        <v>-0.27553349895604706</v>
+      </c>
+      <c r="N10" s="3">
+        <v>-1.6024902413363792E-2</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.27730270597298456</v>
+      </c>
+      <c r="P10" s="3">
+        <v>-0.26990611170219514</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>1</v>
+      </c>
+      <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -4615,8 +4807,32 @@
       <c r="G11">
         <v>16</v>
       </c>
+      <c r="H11">
+        <v>0.99</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.10569261208354001</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.26158260253115434</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.12290493735133645</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.20150328693532921</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>-0.46923368034496171</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4638,8 +4854,11 @@
       <c r="G12">
         <v>14</v>
       </c>
+      <c r="H12">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -4661,8 +4880,11 @@
       <c r="G13">
         <v>14</v>
       </c>
+      <c r="H13">
+        <v>1.28</v>
+      </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -4684,8 +4906,11 @@
       <c r="G14">
         <v>10</v>
       </c>
+      <c r="H14">
+        <v>1.53</v>
+      </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -4707,8 +4932,11 @@
       <c r="G15">
         <v>8</v>
       </c>
+      <c r="H15">
+        <v>1.39</v>
+      </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -4729,6 +4957,9 @@
       </c>
       <c r="G16">
         <v>12</v>
+      </c>
+      <c r="H16">
+        <v>1.53</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4753,6 +4984,9 @@
       <c r="G17">
         <v>9</v>
       </c>
+      <c r="H17">
+        <v>1.03</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
@@ -4776,6 +5010,9 @@
       <c r="G18">
         <v>17</v>
       </c>
+      <c r="H18">
+        <v>1.23</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
@@ -4798,6 +5035,9 @@
       </c>
       <c r="G19">
         <v>10</v>
+      </c>
+      <c r="H19">
+        <v>1.48</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -4888,6 +5128,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/集計20181016.xlsx
+++ b/集計20181016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\match\PycharmProjects\Sotsuken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D525975-B9C8-40BE-B2D3-8C912CD48736}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DC7742-F101-47D4-AD9F-4340DF24612E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3220" activeTab="1" xr2:uid="{69F4FD2F-B8EF-4900-AE97-79688CD6DD43}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="31">
   <si>
     <t>セクション</t>
     <phoneticPr fontId="1"/>
@@ -194,6 +194,10 @@
   </si>
   <si>
     <t>列 6</t>
+  </si>
+  <si>
+    <t>テンポ</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2847,6 +2851,807 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>各曲セクションごとの難易度評価平均</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>チェリー</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>S</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3347-4B6F-9D0A-DC9B33A44B1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TSUNAMI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>S</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3347-4B6F-9D0A-DC9B33A44B1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>紅蓮の弓矢</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3347-4B6F-9D0A-DC9B33A44B1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>浪漫飛行</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$11:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3347-4B6F-9D0A-DC9B33A44B1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>アポロ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$14:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3347-4B6F-9D0A-DC9B33A44B1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>粉雪</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$17:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3347-4B6F-9D0A-DC9B33A44B1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="433999384"/>
+        <c:axId val="434006928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="433999384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>セクション</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="434006928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="434006928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>難易度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="433999384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2927,6 +3732,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3918,6 +4763,509 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx2"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3991,6 +5339,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>429559</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>230840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>399677</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>194982</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="グラフ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2B9505D-3A52-44B5-BB2C-194BDDDBC769}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4413,7 +5797,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I4"/>
+      <selection activeCell="D1" sqref="D1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4456,6 +5840,9 @@
       <c r="J1" t="s">
         <v>27</v>
       </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">

--- a/集計20181016.xlsx
+++ b/集計20181016.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\match\PycharmProjects\Sotsuken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DC7742-F101-47D4-AD9F-4340DF24612E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321E2D4A-8E4E-4E57-BA38-ECB3B7E84167}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3220" activeTab="1" xr2:uid="{69F4FD2F-B8EF-4900-AE97-79688CD6DD43}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3220" xr2:uid="{69F4FD2F-B8EF-4900-AE97-79688CD6DD43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="36">
   <si>
     <t>セクション</t>
     <phoneticPr fontId="1"/>
@@ -182,10 +182,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>なじみやすさ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>おぼえてるかどうか</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -197,6 +193,32 @@
   </si>
   <si>
     <t>テンポ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤井音価難易度</t>
+  </si>
+  <si>
+    <t>WPCS</t>
+  </si>
+  <si>
+    <t>タイの数</t>
+  </si>
+  <si>
+    <t>タイの数</t>
+    <rPh sb="3" eb="4">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音価コスト</t>
+  </si>
+  <si>
+    <t>音価コスト</t>
+    <rPh sb="0" eb="2">
+      <t>オンカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3339,7 +3361,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3652,6 +3673,1070 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>難易度評価平均</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.33</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-7C14-4EF9-A391-95F482F324A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="533270616"/>
+        <c:axId val="533270944"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="533270616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="533270944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="533270944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>タイの数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="533270616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>難易度評価平均</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.33</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>5.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.69</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.83</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.63</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.68</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-8B49-4A42-AA7D-43C2FE562EF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="612821208"/>
+        <c:axId val="612815960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="612821208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="612815960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="612815960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>音価コスト</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="612821208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3772,6 +4857,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5251,6 +6416,1038 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5375,6 +7572,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>148665</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>112806</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C89939C-A135-4C40-A8B7-826740B1BF43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>11207</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>193488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>638736</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>157629</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4761ED73-2281-419E-B7A7-9AEB6E2781D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5680,15 +7949,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85334EC0-AADE-4BAA-BF29-1F5719F4A0CB}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>20</v>
@@ -5706,7 +7975,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
@@ -5718,7 +7987,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -5732,7 +8001,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -5748,7 +8017,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
@@ -5766,7 +8035,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -5783,6 +8052,358 @@
         <v>-0.26990611170219514</v>
       </c>
       <c r="F6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.49741714287675043</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.49741714287675043</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.37512926829179577</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.58743406566330192</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.37512926829179577</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.58743406566330192</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.2861346312331462</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.70373128780207561</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-0.16080569976918399</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.2861346312331462</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.70373128780207561</v>
+      </c>
+      <c r="M12" s="3">
+        <v>-0.16080569976918399</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3">
+        <v>-0.27553349895604706</v>
+      </c>
+      <c r="C13" s="3">
+        <v>-1.6024902413363792E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.27730270597298456</v>
+      </c>
+      <c r="E13" s="3">
+        <v>-0.26990611170219514</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="3">
+        <v>-0.27553349895604706</v>
+      </c>
+      <c r="L13" s="3">
+        <v>-1.6024902413363792E-2</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.27730270597298456</v>
+      </c>
+      <c r="N13" s="3">
+        <v>-0.26990611170219514</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1</v>
+      </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.10569261208354001</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.26158260253115434</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.12290493735133645</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.20150328693532921</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-0.46923368034496171</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.10569261208354001</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0.26158260253115434</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.12290493735133645</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.20150328693532921</v>
+      </c>
+      <c r="O14" s="3">
+        <v>-0.46923368034496171</v>
+      </c>
+      <c r="P14" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="1">
+        <v>-0.46375993097099433</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-0.62920245289124765</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-0.31376944967291692</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-0.49617082020774039</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-5.4145583713574676E-2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.11348284996446011</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="3">
+        <v>-0.15537188403999283</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0.21339027649905443</v>
+      </c>
+      <c r="M15" s="3">
+        <v>-0.22778384247516881</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0.46871088213578493</v>
+      </c>
+      <c r="O15" s="3">
+        <v>-0.35175414403899874</v>
+      </c>
+      <c r="P15" s="3">
+        <v>-7.9292673634728028E-2</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>1</v>
+      </c>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="J16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="1">
+        <v>-0.46375993097099433</v>
+      </c>
+      <c r="L16" s="1">
+        <v>-0.62920245289124765</v>
+      </c>
+      <c r="M16" s="1">
+        <v>-0.31376944967291692</v>
+      </c>
+      <c r="N16" s="1">
+        <v>-0.49617082020774039</v>
+      </c>
+      <c r="O16" s="1">
+        <v>-5.4145583713574676E-2</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.11348284996446011</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>-3.7160150534346278E-2</v>
+      </c>
+      <c r="R16" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5796,8 +8417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82D0823-C23B-471A-9061-24EEDF7AA46D}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:H1"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5835,13 +8456,16 @@
         <v>25</v>
       </c>
       <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" t="s">
-        <v>30</v>
+      <c r="M1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -5869,6 +8493,12 @@
       <c r="H2">
         <v>1.25</v>
       </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>5.78</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
@@ -5895,6 +8525,12 @@
       <c r="H3">
         <v>1.31</v>
       </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>6.15</v>
+      </c>
     </row>
     <row r="4" spans="1:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
@@ -5921,6 +8557,12 @@
       <c r="H4">
         <v>1.63</v>
       </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>6.37</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
@@ -5947,6 +8589,12 @@
       <c r="H5">
         <v>1.1599999999999999</v>
       </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>4.93</v>
+      </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2" t="s">
         <v>16</v>
@@ -5961,10 +8609,10 @@
         <v>19</v>
       </c>
       <c r="Q5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -5991,6 +8639,12 @@
       </c>
       <c r="H6">
         <v>1.22</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>5.69</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>16</v>
@@ -6029,6 +8683,12 @@
       <c r="H7">
         <v>1.43</v>
       </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="J7">
+        <v>6.57</v>
+      </c>
       <c r="L7" s="3" t="s">
         <v>17</v>
       </c>
@@ -6068,6 +8728,12 @@
       <c r="H8">
         <v>1.33</v>
       </c>
+      <c r="I8">
+        <v>24</v>
+      </c>
+      <c r="J8">
+        <v>4.33</v>
+      </c>
       <c r="L8" s="3" t="s">
         <v>18</v>
       </c>
@@ -6109,6 +8775,12 @@
       <c r="H9">
         <v>1.37</v>
       </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>6.1</v>
+      </c>
       <c r="L9" s="3" t="s">
         <v>19</v>
       </c>
@@ -6152,8 +8824,14 @@
       <c r="H10">
         <v>1.45</v>
       </c>
+      <c r="I10">
+        <v>22</v>
+      </c>
+      <c r="J10">
+        <v>4.38</v>
+      </c>
       <c r="L10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M10" s="3">
         <v>-0.27553349895604706</v>
@@ -6197,8 +8875,14 @@
       <c r="H11">
         <v>0.99</v>
       </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <v>4.33</v>
+      </c>
       <c r="L11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M11" s="1">
         <v>0.10569261208354001</v>
@@ -6244,6 +8928,12 @@
       <c r="H12">
         <v>1.1000000000000001</v>
       </c>
+      <c r="I12">
+        <v>7</v>
+      </c>
+      <c r="J12">
+        <v>3.83</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
@@ -6270,6 +8960,12 @@
       <c r="H13">
         <v>1.28</v>
       </c>
+      <c r="I13">
+        <v>13</v>
+      </c>
+      <c r="J13">
+        <v>4.63</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
@@ -6296,6 +8992,12 @@
       <c r="H14">
         <v>1.53</v>
       </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
+      <c r="J14">
+        <v>5.88</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
@@ -6322,6 +9024,12 @@
       <c r="H15">
         <v>1.39</v>
       </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>4.33</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
@@ -6348,8 +9056,14 @@
       <c r="H16">
         <v>1.53</v>
       </c>
+      <c r="I16">
+        <v>11</v>
+      </c>
+      <c r="J16">
+        <v>3.87</v>
+      </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -6374,8 +9088,14 @@
       <c r="H17">
         <v>1.03</v>
       </c>
+      <c r="I17">
+        <v>28</v>
+      </c>
+      <c r="J17">
+        <v>6.95</v>
+      </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -6400,8 +9120,14 @@
       <c r="H18">
         <v>1.23</v>
       </c>
+      <c r="I18">
+        <v>7</v>
+      </c>
+      <c r="J18">
+        <v>6.68</v>
+      </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -6426,8 +9152,14 @@
       <c r="H19">
         <v>1.48</v>
       </c>
+      <c r="I19">
+        <v>18</v>
+      </c>
+      <c r="J19">
+        <v>6.4</v>
+      </c>
     </row>
-    <row r="20" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D20">
         <f>_xlfn.COVARIANCE.P(C2:C19,D2:D19)</f>
         <v>2.5256790123456785</v>
@@ -6441,7 +9173,7 @@
         <v>1.2014814814814818</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
         <v>16</v>
@@ -6456,7 +9188,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D22" s="3" t="s">
         <v>16</v>
       </c>
@@ -6467,7 +9199,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D23" s="3" t="s">
         <v>17</v>
       </c>
@@ -6480,7 +9212,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D24" s="3" t="s">
         <v>18</v>
       </c>
@@ -6495,7 +9227,7 @@
       </c>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D25" s="1" t="s">
         <v>19</v>
       </c>

--- a/集計20181016.xlsx
+++ b/集計20181016.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\match\PycharmProjects\Sotsuken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321E2D4A-8E4E-4E57-BA38-ECB3B7E84167}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDE86737-5792-4C31-B7A2-8C1A9B8A46C9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3220" xr2:uid="{69F4FD2F-B8EF-4900-AE97-79688CD6DD43}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3220" activeTab="3" xr2:uid="{69F4FD2F-B8EF-4900-AE97-79688CD6DD43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet1!$A$1:$P$25</definedName>
+  </definedNames>
   <calcPr calcId="179021"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="48">
   <si>
     <t>セクション</t>
     <phoneticPr fontId="1"/>
@@ -104,18 +111,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TSUNAMI</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -182,20 +177,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>おぼえてるかどうか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>列 5</t>
-  </si>
-  <si>
-    <t>列 6</t>
-  </si>
-  <si>
-    <t>テンポ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>藤井音価難易度</t>
   </si>
   <si>
@@ -221,11 +202,124 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Aメロ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bメロ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サビ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難易度評価１</t>
+  </si>
+  <si>
+    <t>難易度評価１</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難易度評価２</t>
+  </si>
+  <si>
+    <t>難易度評価２</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難易度評価３</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難易度評価４</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難易度評価５</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難易度評価６</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難易度評価３</t>
+  </si>
+  <si>
+    <t>難易度評価４</t>
+  </si>
+  <si>
+    <t>難易度評価５</t>
+  </si>
+  <si>
+    <t>難易度評価６</t>
+  </si>
+  <si>
+    <t>音価コストとテンポの積</t>
+  </si>
+  <si>
+    <t>音価コストとテンポの積</t>
+    <rPh sb="0" eb="2">
+      <t>オンカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>セキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テンポ</t>
+  </si>
+  <si>
+    <t>テンポ</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -243,12 +337,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -285,7 +385,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -298,12 +398,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -355,6 +476,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12331470843529049"/>
+          <c:y val="0.61830663681580555"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2913,6 +3042,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1761140561245873"/>
+          <c:y val="0.54521735758614254"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2992,13 +3129,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>Aメロ</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>B</c:v>
+                  <c:v>Bメロ</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S</c:v>
+                  <c:v>サビ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3038,149 +3175,6 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>TSUNAMI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$2:$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>B</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>S</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$5:$C$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3347-4B6F-9D0A-DC9B33A44B1F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>紅蓮の弓矢</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$8:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3347-4B6F-9D0A-DC9B33A44B1F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>浪漫飛行</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3209,20 +3203,37 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Aメロ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bメロ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>サビ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$11:$C$13</c:f>
+              <c:f>Sheet1!$C$5:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.8</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3230,20 +3241,83 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3347-4B6F-9D0A-DC9B33A44B1F}"/>
+              <c16:uniqueId val="{00000001-3347-4B6F-9D0A-DC9B33A44B1F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$14</c:f>
+              <c:f>Sheet1!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>アポロ</c:v>
+                  <c:v>紅蓮の弓矢</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3347-4B6F-9D0A-DC9B33A44B1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>浪漫飛行</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3274,6 +3348,75 @@
           </c:marker>
           <c:val>
             <c:numRef>
+              <c:f>Sheet1!$C$11:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3347-4B6F-9D0A-DC9B33A44B1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>アポロ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
               <c:f>Sheet1!$C$14:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -3314,7 +3457,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3325,11 +3468,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -3600,6 +3743,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80709739809325143"/>
+          <c:y val="0.15849057738693165"/>
+          <c:w val="0.17861352028402644"/>
+          <c:h val="0.38673435629687997"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3670,1070 +3823,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>難易度評価平均</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>1.83</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.83</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.83</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.33</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.83</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$I$2:$I$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-7C14-4EF9-A391-95F482F324A3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="533270616"/>
-        <c:axId val="533270944"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="533270616"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="533270944"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="533270944"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>タイの数</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="533270616"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>難易度評価平均</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>1.83</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.83</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.83</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.33</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.83</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$J$2:$J$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>5.78</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.37</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.93</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.69</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.57</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.33</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.38</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.33</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.83</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.63</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.33</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.87</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.95</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.68</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-8B49-4A42-AA7D-43C2FE562EF4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="612821208"/>
-        <c:axId val="612815960"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="612821208"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="612815960"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="612815960"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>音価コスト</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="612821208"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -4818,86 +3908,6 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6435,1038 +5445,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7507,16 +5485,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>306295</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>109632</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7543,16 +5521,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>429559</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>230840</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>496796</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>52294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>399677</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>194982</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>107068</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>134292</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7577,79 +5555,91 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>212912</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>148665</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>112806</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="グラフ 3">
-          <a:extLst>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.81882</cdr:x>
+      <cdr:y>0.6181</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99029</cdr:x>
+      <cdr:y>0.89311</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C89939C-A135-4C40-A8B7-826740B1BF43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E93046ED-C207-40D6-9F64-A11877BE34E4}"/>
             </a:ext>
           </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>11207</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>193488</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>638736</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>157629</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="グラフ 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4761ED73-2281-419E-B7A7-9AEB6E2781D9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4366558" y="2055158"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>赤系色</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>上級</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>黄系色</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>中級</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>青系色</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>初級</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7951,7 +5941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85334EC0-AADE-4BAA-BF29-1F5719F4A0CB}">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -7960,24 +5950,24 @@
     <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -7989,7 +5979,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3">
         <v>0.49741714287675043</v>
@@ -8003,7 +5993,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3">
         <v>0.37512926829179577</v>
@@ -8019,7 +6009,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" s="3">
         <v>0.2861346312331462</v>
@@ -8037,7 +6027,7 @@
     </row>
     <row r="6" spans="1:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>-0.27553349895604706</v>
@@ -8059,55 +6049,55 @@
     <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P8" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="Q8" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
@@ -8119,7 +6109,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K9" s="3">
         <v>1</v>
@@ -8134,7 +6124,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3">
         <v>0.49741714287675043</v>
@@ -8148,7 +6138,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K10" s="3">
         <v>0.49741714287675043</v>
@@ -8165,7 +6155,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3">
         <v>0.37512926829179577</v>
@@ -8181,7 +6171,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K11" s="3">
         <v>0.37512926829179577</v>
@@ -8200,7 +6190,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3">
         <v>0.2861346312331462</v>
@@ -8218,7 +6208,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K12" s="3">
         <v>0.2861346312331462</v>
@@ -8239,7 +6229,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B13" s="3">
         <v>-0.27553349895604706</v>
@@ -8259,7 +6249,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K13" s="3">
         <v>-0.27553349895604706</v>
@@ -8282,7 +6272,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3">
         <v>0.10569261208354001</v>
@@ -8304,7 +6294,7 @@
       </c>
       <c r="H14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="K14" s="3">
         <v>0.10569261208354001</v>
@@ -8329,7 +6319,7 @@
     </row>
     <row r="15" spans="1:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1">
         <v>-0.46375993097099433</v>
@@ -8353,7 +6343,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K15" s="3">
         <v>-0.15537188403999283</v>
@@ -8380,7 +6370,7 @@
     </row>
     <row r="16" spans="1:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K16" s="1">
         <v>-0.46375993097099433</v>
@@ -8414,11 +6404,1758 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7BCB02-3602-4A44-8CE0-E21AF6C35FCB}">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.58743406566330192</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.70373128780207561</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-0.16080569976918399</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3">
+        <v>-1.6024902413363792E-2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.27730270597298456</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-0.26990611170219514</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.26158260253115434</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.12290493735133645</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.20150328693532921</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-0.46923368034496171</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.21339027649905443</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-0.22778384247516881</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.46871088213578493</v>
+      </c>
+      <c r="E7" s="3">
+        <v>-0.35175414403899874</v>
+      </c>
+      <c r="F7" s="3">
+        <v>-7.9292673634728028E-2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="3">
+        <v>-0.62920245289124765</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-0.31376944967291692</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-0.49617082020774039</v>
+      </c>
+      <c r="E8" s="3">
+        <v>-5.4145583713574676E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.11348284996446011</v>
+      </c>
+      <c r="G8" s="3">
+        <v>-3.7160150534346278E-2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.40060840071599274</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.27331599931140754</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.24743502053780483</v>
+      </c>
+      <c r="E9" s="5">
+        <v>-0.31212558389235334</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.40892975612165344</v>
+      </c>
+      <c r="G9" s="5">
+        <v>5.4789519094818377E-2</v>
+      </c>
+      <c r="H9" s="5">
+        <v>-0.46364904138014712</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.16503060360433322</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.22752105047687546</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2.2850473357599852E-2</v>
+      </c>
+      <c r="E10" s="5">
+        <v>6.538334226907902E-2</v>
+      </c>
+      <c r="F10" s="5">
+        <v>-0.35098690447348374</v>
+      </c>
+      <c r="G10" s="5">
+        <v>-0.16825529213901735</v>
+      </c>
+      <c r="H10" s="5">
+        <v>-0.29577113960117107</v>
+      </c>
+      <c r="I10" s="5">
+        <v>8.8431537657076342E-2</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.43171504224152485</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.53078342499003606</v>
+      </c>
+      <c r="D11" s="5">
+        <v>5.9304956137644242E-2</v>
+      </c>
+      <c r="E11" s="5">
+        <v>-5.8514689807866178E-2</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.24535111229017414</v>
+      </c>
+      <c r="G11" s="5">
+        <v>-0.35795157435355757</v>
+      </c>
+      <c r="H11" s="5">
+        <v>-0.3028304745975125</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0.43326002185497792</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.55529194673618043</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.39418837431593939</v>
+      </c>
+      <c r="C12" s="5">
+        <v>5.9806502572530347E-2</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.43100445302343054</v>
+      </c>
+      <c r="E12" s="5">
+        <v>-0.37251555186067148</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.38967495041798145</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.27048306581064518</v>
+      </c>
+      <c r="H12" s="5">
+        <v>-6.9966713413025156E-2</v>
+      </c>
+      <c r="I12" s="5">
+        <v>-3.2325409191761856E-2</v>
+      </c>
+      <c r="J12" s="5">
+        <v>-4.7166663063657924E-2</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0.31228050490911896</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="5">
+        <v>-4.2044654275231463E-2</v>
+      </c>
+      <c r="C13" s="5">
+        <v>-8.5174700942892961E-3</v>
+      </c>
+      <c r="D13" s="5">
+        <v>-5.0165687270065561E-2</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.14932347806729435</v>
+      </c>
+      <c r="F13" s="5">
+        <v>-0.73745616281796822</v>
+      </c>
+      <c r="G13" s="5">
+        <v>-0.20752948453913575</v>
+      </c>
+      <c r="H13" s="5">
+        <v>-0.46755251005182863</v>
+      </c>
+      <c r="I13" s="5">
+        <v>-0.24494606173841921</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.3282442748091603</v>
+      </c>
+      <c r="K13" s="5">
+        <v>-0.10549162715232825</v>
+      </c>
+      <c r="L13" s="5">
+        <v>-0.52832167935850005</v>
+      </c>
+      <c r="M13" s="5">
+        <v>1</v>
+      </c>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0.6339516938177725</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.5210501057189062</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.61611773060659436</v>
+      </c>
+      <c r="E14" s="6">
+        <v>-0.10623145515131185</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.13856115646859674</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.26332464578952858</v>
+      </c>
+      <c r="H14" s="6">
+        <v>-0.39023075839299021</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.55470019622522915</v>
+      </c>
+      <c r="J14" s="6">
+        <v>-0.1272569525951556</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0.31917252681128727</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0.30508510792387589</v>
+      </c>
+      <c r="M14" s="6">
+        <v>-0.29277002188455997</v>
+      </c>
+      <c r="N14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B9:N14">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8958FC4B-C78E-4059-9AA7-872172CC7486}">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.58743406566330192</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.70373128780207561</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-0.16080569976918399</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3">
+        <v>-1.6024902413363792E-2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.27730270597298456</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-0.26990611170219514</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.26158260253115434</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.12290493735133645</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.20150328693532921</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-0.46923368034496171</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.21339027649905443</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-0.22778384247516881</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.46871088213578493</v>
+      </c>
+      <c r="E7" s="3">
+        <v>-0.35175414403899874</v>
+      </c>
+      <c r="F7" s="3">
+        <v>-7.9292673634728028E-2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="3">
+        <v>-0.62920245289124765</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-0.31376944967291692</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-0.49617082020774039</v>
+      </c>
+      <c r="E8" s="3">
+        <v>-5.4145583713574676E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.11348284996446011</v>
+      </c>
+      <c r="G8" s="3">
+        <v>-3.7160150534346278E-2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.56537630148045415</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5.3314203058228093E-2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.64582328024664615</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-0.44745357114015788</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.30481821395475789</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.10365828371487115</v>
+      </c>
+      <c r="H9" s="3">
+        <v>-0.63591858970802306</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.20780116387478839</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-0.13598222625499751</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.37279333222199884</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-0.55324302407023429</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.44469481570402292</v>
+      </c>
+      <c r="G10" s="3">
+        <v>-1.1227509969413055E-2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>-1.9063007067456821E-2</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.77077494809384195</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.40060840071599274</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.27331599931140754</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.24743502053780483</v>
+      </c>
+      <c r="E11" s="3">
+        <v>-0.31212558389235334</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.40892975612165344</v>
+      </c>
+      <c r="G11" s="3">
+        <v>5.4789519094818377E-2</v>
+      </c>
+      <c r="H11" s="3">
+        <v>-0.46364904138014712</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.49034679343150978</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.22258680902344716</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.16503060360433322</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.22752105047687546</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2.2850473357599852E-2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6.538334226907902E-2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>-0.35098690447348374</v>
+      </c>
+      <c r="G12" s="3">
+        <v>-0.16825529213901735</v>
+      </c>
+      <c r="H12" s="3">
+        <v>-0.29577113960117107</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.15668135425800581</v>
+      </c>
+      <c r="J12" s="3">
+        <v>4.7139801348052318E-2</v>
+      </c>
+      <c r="K12" s="3">
+        <v>8.8431537657076342E-2</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.43171504224152485</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.53078342499003606</v>
+      </c>
+      <c r="D13" s="3">
+        <v>5.9304956137644242E-2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>-5.8514689807866178E-2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.24535111229017414</v>
+      </c>
+      <c r="G13" s="3">
+        <v>-0.35795157435355757</v>
+      </c>
+      <c r="H13" s="3">
+        <v>-0.3028304745975125</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.32934179862753188</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.24217598944513133</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.43326002185497792</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.55529194673618043</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.39418837431593939</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5.9806502572530347E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.43100445302343054</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-0.37251555186067148</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.38967495041798145</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.27048306581064518</v>
+      </c>
+      <c r="H14" s="1">
+        <v>-6.9966713413025156E-2</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.26674258944989487</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.23500479079440484</v>
+      </c>
+      <c r="K14" s="1">
+        <v>-3.2325409191761856E-2</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-4.7166663063657924E-2</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.31228050490911896</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CC1D19-E16A-4AAF-9FF8-812D6FA9508B}">
+  <dimension ref="A1:Q18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.49741714287675043</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.37512926829179577</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.58743406566330192</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.2861346312331462</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.70373128780207561</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-0.16080569976918399</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3">
+        <v>-0.27553349895604706</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-1.6024902413363792E-2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.27730270597298456</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-0.26990611170219514</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.10569261208354001</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.26158260253115434</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.12290493735133645</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.20150328693532921</v>
+      </c>
+      <c r="F7" s="3">
+        <v>-0.46923368034496171</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3">
+        <v>-0.15537188403999283</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.21339027649905443</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-0.22778384247516881</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.46871088213578493</v>
+      </c>
+      <c r="F8" s="3">
+        <v>-0.35175414403899874</v>
+      </c>
+      <c r="G8" s="3">
+        <v>-7.9292673634728028E-2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3">
+        <v>-0.46375993097099433</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-0.62920245289124765</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-0.31376944967291692</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-0.49617082020774039</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-5.4145583713574676E-2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.11348284996446011</v>
+      </c>
+      <c r="H9" s="3">
+        <v>-3.7160150534346278E-2</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.50843368686885526</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.56537630148045415</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5.3314203058228093E-2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.64582328024664615</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-0.44745357114015788</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.30481821395475789</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.10365828371487115</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-0.63591858970802306</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.29644994895302984</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.20780116387478839</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-0.13598222625499751</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.37279333222199884</v>
+      </c>
+      <c r="F11" s="3">
+        <v>-0.55324302407023429</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.44469481570402292</v>
+      </c>
+      <c r="H11" s="3">
+        <v>-1.1227509969413055E-2</v>
+      </c>
+      <c r="I11" s="3">
+        <v>-1.9063007067456821E-2</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.77077494809384195</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.48727897293820693</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.40060840071599274</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.27331599931140754</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.24743502053780483</v>
+      </c>
+      <c r="F12" s="7">
+        <v>-0.31212558389235334</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.40892975612165344</v>
+      </c>
+      <c r="H12" s="7">
+        <v>5.4789519094818377E-2</v>
+      </c>
+      <c r="I12" s="7">
+        <v>-0.46364904138014712</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0.49034679343150978</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.22258680902344716</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.63115140782382806</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.16503060360433322</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.22752105047687546</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2.2850473357599852E-2</v>
+      </c>
+      <c r="F13" s="7">
+        <v>6.538334226907902E-2</v>
+      </c>
+      <c r="G13" s="7">
+        <v>-0.35098690447348374</v>
+      </c>
+      <c r="H13" s="7">
+        <v>-0.16825529213901735</v>
+      </c>
+      <c r="I13" s="7">
+        <v>-0.29577113960117107</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0.15668135425800581</v>
+      </c>
+      <c r="K13" s="7">
+        <v>4.7139801348052318E-2</v>
+      </c>
+      <c r="L13" s="3">
+        <v>8.8431537657076342E-2</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.84353466793190679</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.43171504224152485</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.53078342499003606</v>
+      </c>
+      <c r="E14" s="7">
+        <v>5.9304956137644242E-2</v>
+      </c>
+      <c r="F14" s="7">
+        <v>-5.8514689807866178E-2</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.24535111229017414</v>
+      </c>
+      <c r="H14" s="7">
+        <v>-0.35795157435355757</v>
+      </c>
+      <c r="I14" s="7">
+        <v>-0.3028304745975125</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0.32934179862753188</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0.24217598944513133</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0.43326002185497792</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.55529194673618043</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.3504775976947806</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.39418837431593939</v>
+      </c>
+      <c r="D15" s="7">
+        <v>5.9806502572530347E-2</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.43100445302343054</v>
+      </c>
+      <c r="F15" s="7">
+        <v>-0.37251555186067148</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.38967495041798145</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.27048306581064518</v>
+      </c>
+      <c r="I15" s="7">
+        <v>-6.9966713413025156E-2</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0.26674258944989487</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0.23500479079440484</v>
+      </c>
+      <c r="L15" s="3">
+        <v>-3.2325409191761856E-2</v>
+      </c>
+      <c r="M15" s="3">
+        <v>-4.7166663063657924E-2</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0.31228050490911896</v>
+      </c>
+      <c r="O15" s="3">
+        <v>1</v>
+      </c>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.31428300138116128</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-4.2044654275231463E-2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>-8.5174700942892961E-3</v>
+      </c>
+      <c r="E16" s="7">
+        <v>-5.0165687270065561E-2</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.14932347806729435</v>
+      </c>
+      <c r="G16" s="7">
+        <v>-0.73745616281796822</v>
+      </c>
+      <c r="H16" s="7">
+        <v>-0.20752948453913575</v>
+      </c>
+      <c r="I16" s="7">
+        <v>-0.46755251005182863</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.46812857442016226</v>
+      </c>
+      <c r="K16" s="7">
+        <v>-0.10031515544950917</v>
+      </c>
+      <c r="L16" s="3">
+        <v>-0.24494606173841921</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.3282442748091603</v>
+      </c>
+      <c r="N16" s="3">
+        <v>-0.10549162715232825</v>
+      </c>
+      <c r="O16" s="3">
+        <v>-0.52832167935850005</v>
+      </c>
+      <c r="P16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.51301757370710233</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.6339516938177725</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.5210501057189062</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.61611773060659436</v>
+      </c>
+      <c r="F17" s="8">
+        <v>-0.10623145515131185</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0.13856115646859674</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0.26332464578952858</v>
+      </c>
+      <c r="I17" s="8">
+        <v>-0.39023075839299021</v>
+      </c>
+      <c r="J17" s="8">
+        <v>9.8638885194826789E-2</v>
+      </c>
+      <c r="K17" s="8">
+        <v>-0.36209046153744234</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.55470019622522915</v>
+      </c>
+      <c r="M17" s="1">
+        <v>-0.1272569525951556</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.31917252681128727</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0.30508510792387589</v>
+      </c>
+      <c r="P17" s="1">
+        <v>-0.29277002188455997</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B2:B18">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:K17 B18">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:K17">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="num" val="-1"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:Q18">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+        <color rgb="FF0000FF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="-1"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+        <color rgb="FF0000FF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:Q17">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="-1"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF0000FF"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82D0823-C23B-471A-9061-24EEDF7AA46D}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView topLeftCell="B6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -8453,19 +8190,37 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" t="s">
-        <v>29</v>
+      <c r="O1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -8473,7 +8228,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C2">
         <v>1.83</v>
@@ -8498,6 +8253,31 @@
       </c>
       <c r="J2">
         <v>5.78</v>
+      </c>
+      <c r="K2">
+        <v>97</v>
+      </c>
+      <c r="L2">
+        <f>PRODUCT(J2,K2)</f>
+        <v>560.66</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -8505,7 +8285,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>1.83</v>
@@ -8531,13 +8311,38 @@
       <c r="J3">
         <v>6.15</v>
       </c>
+      <c r="K3">
+        <v>97</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L19" si="0">PRODUCT(J3,K3)</f>
+        <v>596.55000000000007</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>2.17</v>
@@ -8562,14 +8367,39 @@
       </c>
       <c r="J4">
         <v>6.37</v>
+      </c>
+      <c r="K4">
+        <v>97</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>617.89</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>2.2000000000000002</v>
@@ -8595,32 +8425,36 @@
       <c r="J5">
         <v>4.93</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="K5">
+        <v>90</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>443.7</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" s="4">
+        <v>2</v>
+      </c>
+      <c r="O5" s="4">
+        <v>3</v>
+      </c>
+      <c r="P5" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>2</v>
+      </c>
+      <c r="R5" s="4"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>2.4</v>
@@ -8646,24 +8480,36 @@
       <c r="J6">
         <v>5.69</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="3">
+      <c r="K6">
+        <v>90</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>512.1</v>
+      </c>
+      <c r="M6">
         <v>1</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="N6" s="3">
+        <v>2</v>
+      </c>
+      <c r="O6" s="3">
+        <v>3</v>
+      </c>
+      <c r="P6" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>3</v>
+      </c>
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>1.6</v>
@@ -8689,26 +8535,36 @@
       <c r="J7">
         <v>6.57</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0.49741714287675043</v>
+      <c r="K7">
+        <v>90</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>591.30000000000007</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
       </c>
       <c r="N7" s="3">
         <v>1</v>
       </c>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
+      <c r="O7" s="3">
+        <v>2</v>
+      </c>
+      <c r="P7" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>1</v>
+      </c>
       <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>2.5</v>
@@ -8734,28 +8590,34 @@
       <c r="J8">
         <v>4.33</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0.37512926829179577</v>
+      <c r="K8">
+        <v>180</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>779.4</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
       </c>
       <c r="N8" s="3">
-        <v>0.58743406566330192</v>
+        <v>2</v>
       </c>
       <c r="O8" s="3">
-        <v>1</v>
-      </c>
-      <c r="P8" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="P8" s="3">
+        <v>4</v>
+      </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -8781,30 +8643,34 @@
       <c r="J9">
         <v>6.1</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0.2861346312331462</v>
+      <c r="K9">
+        <v>180</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>1098</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
       </c>
       <c r="N9" s="3">
-        <v>0.70373128780207561</v>
+        <v>3</v>
       </c>
       <c r="O9" s="3">
-        <v>-0.16080569976918399</v>
+        <v>4</v>
       </c>
       <c r="P9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -8830,32 +8696,34 @@
       <c r="J10">
         <v>4.38</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="3">
-        <v>-0.27553349895604706</v>
+      <c r="K10">
+        <v>180</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>788.4</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
       </c>
       <c r="N10" s="3">
-        <v>-1.6024902413363792E-2</v>
+        <v>1</v>
       </c>
       <c r="O10" s="3">
-        <v>0.27730270597298456</v>
+        <v>2</v>
       </c>
       <c r="P10" s="3">
-        <v>-0.26990611170219514</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>2.8</v>
@@ -8881,34 +8749,36 @@
       <c r="J11">
         <v>4.33</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0.10569261208354001</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0.26158260253115434</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0.12290493735133645</v>
-      </c>
-      <c r="P11" s="1">
-        <v>0.20150328693532921</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>-0.46923368034496171</v>
-      </c>
-      <c r="R11" s="1">
+      <c r="K11">
+        <v>132</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>571.56000000000006</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11" s="3">
+        <v>3</v>
+      </c>
+      <c r="O11" s="3">
+        <v>3</v>
+      </c>
+      <c r="P11" s="3">
         <v>1</v>
       </c>
+      <c r="Q11" s="3">
+        <v>4</v>
+      </c>
+      <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>2.8</v>
@@ -8933,14 +8803,36 @@
       </c>
       <c r="J12">
         <v>3.83</v>
+      </c>
+      <c r="K12">
+        <v>132</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>505.56</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12" s="3">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -8965,14 +8857,36 @@
       </c>
       <c r="J13">
         <v>4.63</v>
+      </c>
+      <c r="K13">
+        <v>132</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>611.16</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+      <c r="N13" s="3">
+        <v>2</v>
+      </c>
+      <c r="O13" s="3">
+        <v>2</v>
+      </c>
+      <c r="P13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>2.5</v>
@@ -8997,14 +8911,36 @@
       </c>
       <c r="J14">
         <v>5.88</v>
+      </c>
+      <c r="K14">
+        <v>170</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>999.6</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" s="3">
+        <v>2</v>
+      </c>
+      <c r="O14" s="3">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3">
+        <v>3</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>2.8</v>
@@ -9029,14 +8965,36 @@
       </c>
       <c r="J15">
         <v>4.33</v>
+      </c>
+      <c r="K15">
+        <v>170</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>736.1</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3">
+        <v>2</v>
+      </c>
+      <c r="O15" s="3">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>3.2</v>
@@ -9062,13 +9020,35 @@
       <c r="J16">
         <v>3.87</v>
       </c>
+      <c r="K16">
+        <v>170</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>657.9</v>
+      </c>
+      <c r="M16">
+        <v>4</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1</v>
+      </c>
+      <c r="O16" s="3">
+        <v>4</v>
+      </c>
+      <c r="P16" s="3">
+        <v>3</v>
+      </c>
+      <c r="R16">
+        <v>4</v>
+      </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>1.83</v>
@@ -9094,13 +9074,38 @@
       <c r="J17">
         <v>6.95</v>
       </c>
+      <c r="K17">
+        <v>82</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>569.9</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1</v>
+      </c>
+      <c r="P17" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C18">
         <v>2.33</v>
@@ -9126,13 +9131,38 @@
       <c r="J18">
         <v>6.68</v>
       </c>
+      <c r="K18">
+        <v>82</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>547.76</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18" s="3">
+        <v>2</v>
+      </c>
+      <c r="O18" s="3">
+        <v>2</v>
+      </c>
+      <c r="P18" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C19">
         <v>2.83</v>
@@ -9158,8 +9188,33 @@
       <c r="J19">
         <v>6.4</v>
       </c>
+      <c r="K19">
+        <v>82</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>524.80000000000007</v>
+      </c>
+      <c r="M19">
+        <v>3</v>
+      </c>
+      <c r="N19" s="3">
+        <v>3</v>
+      </c>
+      <c r="O19" s="3">
+        <v>4</v>
+      </c>
+      <c r="P19" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>1</v>
+      </c>
+      <c r="R19" s="3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="20" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D20">
         <f>_xlfn.COVARIANCE.P(C2:C19,D2:D19)</f>
         <v>2.5256790123456785</v>
@@ -9173,24 +9228,24 @@
         <v>1.2014814814814818</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="D22" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -9199,9 +9254,9 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="D23" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E23" s="3">
         <v>0.49741714287675043</v>
@@ -9212,9 +9267,9 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="D24" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E24" s="3">
         <v>0.37512926829179577</v>
@@ -9227,9 +9282,9 @@
       </c>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D25" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E25" s="1">
         <v>0.2861346312331462</v>

--- a/集計20181016.xlsx
+++ b/集計20181016.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\match\PycharmProjects\Sotsuken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDE86737-5792-4C31-B7A2-8C1A9B8A46C9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D331BE-28C9-41BF-A989-1550D7FF6A7E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3220" activeTab="3" xr2:uid="{69F4FD2F-B8EF-4900-AE97-79688CD6DD43}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3220" activeTab="5" xr2:uid="{69F4FD2F-B8EF-4900-AE97-79688CD6DD43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet1!$A$1:$P$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet1!$A$1:$P$25</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,6 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="72">
   <si>
     <t>セクション</t>
     <phoneticPr fontId="1"/>
@@ -312,6 +313,78 @@
     <t>テンポ</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>概要</t>
+  </si>
+  <si>
+    <t>回帰統計</t>
+  </si>
+  <si>
+    <t>重相関 R</t>
+  </si>
+  <si>
+    <t>重決定 R2</t>
+  </si>
+  <si>
+    <t>補正 R2</t>
+  </si>
+  <si>
+    <t>標準誤差</t>
+  </si>
+  <si>
+    <t>観測数</t>
+  </si>
+  <si>
+    <t>分散分析表</t>
+  </si>
+  <si>
+    <t>回帰</t>
+  </si>
+  <si>
+    <t>残差</t>
+  </si>
+  <si>
+    <t>合計</t>
+  </si>
+  <si>
+    <t>切片</t>
+  </si>
+  <si>
+    <t>自由度</t>
+  </si>
+  <si>
+    <t>変動</t>
+  </si>
+  <si>
+    <t>分散</t>
+  </si>
+  <si>
+    <t>観測された分散比</t>
+  </si>
+  <si>
+    <t>有意 F</t>
+  </si>
+  <si>
+    <t>係数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t </t>
+  </si>
+  <si>
+    <t>P-値</t>
+  </si>
+  <si>
+    <t>下限 95%</t>
+  </si>
+  <si>
+    <t>上限 95%</t>
+  </si>
+  <si>
+    <t>下限 95.0%</t>
+  </si>
+  <si>
+    <t>上限 95.0%</t>
+  </si>
 </sst>
 </file>
 
@@ -385,7 +458,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -412,6 +485,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7367,7 +7443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CC1D19-E16A-4AAF-9FF8-812D6FA9508B}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12:K17"/>
     </sheetView>
   </sheetViews>
@@ -8151,10 +8227,469 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC5B8EC-85B8-447A-8FF7-7C48718F1D52}">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.7959328318225658</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.63350907277308877</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.22120677964281366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.41163455647205904</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="3">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2.3431670464555205</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.26035189405061337</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1.5365160061647265</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.27807774670521046</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="3">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1.3555440646555901</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.16944300808194876</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="1">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3.6987111111111108</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2.6858781385881869</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3.9767092499783852</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.67540219054304396</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.51846193925467055</v>
+      </c>
+      <c r="F17" s="3">
+        <v>-6.4844298363666315</v>
+      </c>
+      <c r="G17" s="3">
+        <v>11.856186113543005</v>
+      </c>
+      <c r="H17" s="3">
+        <v>-6.4844298363666315</v>
+      </c>
+      <c r="I17" s="3">
+        <v>11.856186113543005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3">
+        <v>-0.17093601996658667</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.33317260716251651</v>
+      </c>
+      <c r="D18" s="3">
+        <v>-0.51305544421065408</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.62177618120065825</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-0.93923342982010327</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.59736138988692988</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-0.93923342982010327</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.59736138988692988</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.19813050262581372</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.32186380346378196</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.61557248902674</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.5552804047458183</v>
+      </c>
+      <c r="F19" s="3">
+        <v>-0.54408875913420873</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.94034976438583628</v>
+      </c>
+      <c r="H19" s="3">
+        <v>-0.54408875913420873</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.94034976438583628</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.19511302072338793</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.33164511537745112</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.58831869271261961</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.57254882464166856</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-0.56966198675727742</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.95988802820405339</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-0.56966198675727742</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.95988802820405339</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3">
+        <v>-8.9793270611546544E-2</v>
+      </c>
+      <c r="C21" s="3">
+        <v>5.2461303053005351E-2</v>
+      </c>
+      <c r="D21" s="3">
+        <v>-1.711609612914534</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.12532976735877546</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-0.21076925238997588</v>
+      </c>
+      <c r="G21" s="3">
+        <v>3.1182711166882787E-2</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-0.21076925238997588</v>
+      </c>
+      <c r="I21" s="3">
+        <v>3.1182711166882787E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="3">
+        <v>-1.1483566295783476</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.93281403104684824</v>
+      </c>
+      <c r="D22" s="3">
+        <v>-1.2310670630560812</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.25325999851124226</v>
+      </c>
+      <c r="F22" s="3">
+        <v>-3.2994296425488479</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1.0027163833921529</v>
+      </c>
+      <c r="H22" s="3">
+        <v>-3.2994296425488479</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1.0027163833921529</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="3">
+        <v>-3.9677258981615803E-2</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2.1687213672980647E-2</v>
+      </c>
+      <c r="D23" s="3">
+        <v>-1.8295231273092649</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.10471358186241714</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-8.968806339256552E-2</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1.0333545429333922E-2</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-8.968806339256552E-2</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1.0333545429333922E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.34053329939918009</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.67919755794976389</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.50137591841042406</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.6296098967832966</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-1.2256990778535475</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1.9067656766519077</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-1.2256990778535475</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1.9067656766519077</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1.4851794621545466E-2</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2.7921341764409659E-2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.53191550559638645</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.60923422872785393</v>
+      </c>
+      <c r="F25" s="3">
+        <v>-4.9534934947632017E-2</v>
+      </c>
+      <c r="G25" s="3">
+        <v>7.9238524190722956E-2</v>
+      </c>
+      <c r="H25" s="3">
+        <v>-4.9534934947632017E-2</v>
+      </c>
+      <c r="I25" s="3">
+        <v>7.9238524190722956E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="1">
+        <v>-2.5369740527127938E-3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4.6744765707535064E-3</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-0.54272901239589355</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.60210437420239771</v>
+      </c>
+      <c r="F26" s="1">
+        <v>-1.3316336354785374E-2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>8.2423882493597878E-3</v>
+      </c>
+      <c r="H26" s="1">
+        <v>-1.3316336354785374E-2</v>
+      </c>
+      <c r="I26" s="1">
+        <v>8.2423882493597878E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82D0823-C23B-471A-9061-24EEDF7AA46D}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:R19"/>
     </sheetView>
   </sheetViews>

--- a/集計20181016.xlsx
+++ b/集計20181016.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\match\PycharmProjects\Sotsuken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D331BE-28C9-41BF-A989-1550D7FF6A7E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363DA6E5-439C-4546-9451-679624585A85}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3220" activeTab="5" xr2:uid="{69F4FD2F-B8EF-4900-AE97-79688CD6DD43}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3220" firstSheet="1" activeTab="9" xr2:uid="{69F4FD2F-B8EF-4900-AE97-79688CD6DD43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -18,10 +18,14 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet1!$A$1:$P$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Sheet1!$A$1:$P$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="80">
   <si>
     <t>セクション</t>
     <phoneticPr fontId="1"/>
@@ -385,6 +389,53 @@
   <si>
     <t>上限 95.0%</t>
   </si>
+  <si>
+    <t>変化割合</t>
+  </si>
+  <si>
+    <t>変化割合</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ワリアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピッチエントロピー</t>
+  </si>
+  <si>
+    <t>ピッチエントロピー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音価エントロピー</t>
+  </si>
+  <si>
+    <t>音価エントロピー</t>
+    <rPh sb="0" eb="2">
+      <t>オンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音程方向変化割合</t>
+    <rPh sb="0" eb="2">
+      <t>オンテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人ごと</t>
+    <rPh sb="0" eb="2">
+      <t>コジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -393,7 +444,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,8 +460,17 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,8 +483,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -452,13 +518,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -488,6 +591,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3903,6 +4021,530 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>難易度評価２</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.73499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.51</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$2:$S$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4EB2-4A3F-85BD-D373CF7B8CD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="532204104"/>
+        <c:axId val="532204432"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="532204104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>音価エントロピー</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47399190726159229"/>
+              <c:y val="0.85310185185185183"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="532204432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="532204432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>難易度評価</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="532204104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3984,6 +4626,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5521,6 +6203,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5626,6 +6824,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>41088</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>92636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>56777</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BA31208-D88B-40D3-862C-3CF8D00B5891}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6479,6 +7713,1334 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82D0823-C23B-471A-9061-24EEDF7AA46D}">
+  <dimension ref="A1:W25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O1" activeCellId="2" sqref="R1 R1:R1048576 O1:O1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="10.4140625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.58203125" customWidth="1"/>
+    <col min="6" max="6" width="12.9140625" customWidth="1"/>
+    <col min="7" max="7" width="6.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2">
+        <v>1.83</v>
+      </c>
+      <c r="D2">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>1.25</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>5.78</v>
+      </c>
+      <c r="K2">
+        <v>97</v>
+      </c>
+      <c r="L2">
+        <f>PRODUCT(J2,K2)</f>
+        <v>560.66</v>
+      </c>
+      <c r="M2">
+        <v>11.6</v>
+      </c>
+      <c r="N2">
+        <v>2.04</v>
+      </c>
+      <c r="O2">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>3</v>
+      </c>
+      <c r="W2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>1.83</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>1.31</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>6.15</v>
+      </c>
+      <c r="K3">
+        <v>97</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L19" si="0">PRODUCT(J3,K3)</f>
+        <v>596.55000000000007</v>
+      </c>
+      <c r="M3">
+        <v>16.3</v>
+      </c>
+      <c r="N3">
+        <v>2.06</v>
+      </c>
+      <c r="O3">
+        <v>1.08</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>3</v>
+      </c>
+      <c r="W3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>2.17</v>
+      </c>
+      <c r="D4">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>1.63</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>6.37</v>
+      </c>
+      <c r="K4">
+        <v>97</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>617.89</v>
+      </c>
+      <c r="M4">
+        <v>14.6</v>
+      </c>
+      <c r="N4">
+        <v>1.65</v>
+      </c>
+      <c r="O4">
+        <v>1.53</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D5">
+        <v>38</v>
+      </c>
+      <c r="E5">
+        <v>27</v>
+      </c>
+      <c r="F5">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>19</v>
+      </c>
+      <c r="H5">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>4.93</v>
+      </c>
+      <c r="K5">
+        <v>90</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>443.7</v>
+      </c>
+      <c r="M5">
+        <v>28</v>
+      </c>
+      <c r="N5">
+        <v>2.15</v>
+      </c>
+      <c r="O5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5" s="4">
+        <v>2</v>
+      </c>
+      <c r="T5" s="4">
+        <v>3</v>
+      </c>
+      <c r="U5" s="4">
+        <v>3</v>
+      </c>
+      <c r="V5" s="4">
+        <v>2</v>
+      </c>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>2.4</v>
+      </c>
+      <c r="D6">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>21</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>1.22</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>5.69</v>
+      </c>
+      <c r="K6">
+        <v>90</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>512.1</v>
+      </c>
+      <c r="M6">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="N6">
+        <v>2.42</v>
+      </c>
+      <c r="O6">
+        <v>1.08</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6" s="3">
+        <v>2</v>
+      </c>
+      <c r="T6" s="3">
+        <v>3</v>
+      </c>
+      <c r="U6" s="3">
+        <v>3</v>
+      </c>
+      <c r="V6" s="3">
+        <v>3</v>
+      </c>
+      <c r="W6" s="3"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>1.6</v>
+      </c>
+      <c r="D7">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>16</v>
+      </c>
+      <c r="H7">
+        <v>1.43</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="J7">
+        <v>6.57</v>
+      </c>
+      <c r="K7">
+        <v>90</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>591.30000000000007</v>
+      </c>
+      <c r="M7">
+        <v>24.5</v>
+      </c>
+      <c r="N7">
+        <v>2.1</v>
+      </c>
+      <c r="O7">
+        <v>1.27</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7" s="3">
+        <v>1</v>
+      </c>
+      <c r="T7" s="3">
+        <v>2</v>
+      </c>
+      <c r="U7" s="3">
+        <v>2</v>
+      </c>
+      <c r="V7" s="3">
+        <v>1</v>
+      </c>
+      <c r="W7" s="3"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8">
+        <v>2.5</v>
+      </c>
+      <c r="D8">
+        <v>42</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>42</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>1.33</v>
+      </c>
+      <c r="I8">
+        <v>24</v>
+      </c>
+      <c r="J8">
+        <v>4.33</v>
+      </c>
+      <c r="K8">
+        <v>180</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>779.4</v>
+      </c>
+      <c r="M8">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="N8">
+        <v>1.93</v>
+      </c>
+      <c r="O8">
+        <v>0.53</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8" s="3">
+        <v>2</v>
+      </c>
+      <c r="T8" s="3">
+        <v>2</v>
+      </c>
+      <c r="U8" s="3">
+        <v>4</v>
+      </c>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>33</v>
+      </c>
+      <c r="E9">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>1.37</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>6.1</v>
+      </c>
+      <c r="K9">
+        <v>180</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>1098</v>
+      </c>
+      <c r="M9">
+        <v>25.6</v>
+      </c>
+      <c r="N9">
+        <v>1.98</v>
+      </c>
+      <c r="O9">
+        <v>1.38</v>
+      </c>
+      <c r="R9">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3">
+        <v>3</v>
+      </c>
+      <c r="T9" s="3">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3">
+        <v>2</v>
+      </c>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>18</v>
+      </c>
+      <c r="G10">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <v>1.45</v>
+      </c>
+      <c r="I10">
+        <v>22</v>
+      </c>
+      <c r="J10">
+        <v>4.38</v>
+      </c>
+      <c r="K10">
+        <v>180</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>788.4</v>
+      </c>
+      <c r="M10">
+        <v>23.4</v>
+      </c>
+      <c r="N10">
+        <v>1.69</v>
+      </c>
+      <c r="O10">
+        <v>0.88</v>
+      </c>
+      <c r="R10">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3">
+        <v>1</v>
+      </c>
+      <c r="T10" s="3">
+        <v>2</v>
+      </c>
+      <c r="U10" s="3">
+        <v>2</v>
+      </c>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>2.8</v>
+      </c>
+      <c r="D11">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>0.99</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <v>4.33</v>
+      </c>
+      <c r="K11">
+        <v>132</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>571.56000000000006</v>
+      </c>
+      <c r="M11" s="10">
+        <v>25.5</v>
+      </c>
+      <c r="N11">
+        <v>2.1</v>
+      </c>
+      <c r="O11">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="R11">
+        <v>3</v>
+      </c>
+      <c r="S11" s="3">
+        <v>3</v>
+      </c>
+      <c r="T11" s="3">
+        <v>3</v>
+      </c>
+      <c r="U11" s="3">
+        <v>1</v>
+      </c>
+      <c r="V11" s="3">
+        <v>4</v>
+      </c>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>2.8</v>
+      </c>
+      <c r="D12">
+        <v>38</v>
+      </c>
+      <c r="E12">
+        <v>27</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>14</v>
+      </c>
+      <c r="H12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I12">
+        <v>7</v>
+      </c>
+      <c r="J12">
+        <v>3.83</v>
+      </c>
+      <c r="K12">
+        <v>132</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>505.56</v>
+      </c>
+      <c r="M12">
+        <v>21.6</v>
+      </c>
+      <c r="N12">
+        <v>1.94</v>
+      </c>
+      <c r="O12">
+        <v>0.88</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12" s="3">
+        <v>4</v>
+      </c>
+      <c r="T12" s="3">
+        <v>3</v>
+      </c>
+      <c r="U12" s="3">
+        <v>1</v>
+      </c>
+      <c r="V12" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>17</v>
+      </c>
+      <c r="G13">
+        <v>14</v>
+      </c>
+      <c r="H13">
+        <v>1.28</v>
+      </c>
+      <c r="I13">
+        <v>13</v>
+      </c>
+      <c r="J13">
+        <v>4.63</v>
+      </c>
+      <c r="K13">
+        <v>132</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>611.16</v>
+      </c>
+      <c r="M13">
+        <v>20</v>
+      </c>
+      <c r="N13">
+        <v>2.1</v>
+      </c>
+      <c r="O13">
+        <v>0.95</v>
+      </c>
+      <c r="R13">
+        <v>3</v>
+      </c>
+      <c r="S13" s="3">
+        <v>2</v>
+      </c>
+      <c r="T13" s="3">
+        <v>2</v>
+      </c>
+      <c r="U13" s="3">
+        <v>1</v>
+      </c>
+      <c r="V13" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14">
+        <v>2.5</v>
+      </c>
+      <c r="D14">
+        <v>24</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>1.53</v>
+      </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
+      <c r="J14">
+        <v>5.88</v>
+      </c>
+      <c r="K14">
+        <v>170</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>999.6</v>
+      </c>
+      <c r="M14">
+        <v>41.1</v>
+      </c>
+      <c r="N14">
+        <v>1.36</v>
+      </c>
+      <c r="O14">
+        <v>0.98</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14" s="3">
+        <v>2</v>
+      </c>
+      <c r="T14" s="3">
+        <v>3</v>
+      </c>
+      <c r="U14" s="3">
+        <v>3</v>
+      </c>
+      <c r="W14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>2.8</v>
+      </c>
+      <c r="D15">
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
+      <c r="H15">
+        <v>1.39</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>4.33</v>
+      </c>
+      <c r="K15">
+        <v>170</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>736.1</v>
+      </c>
+      <c r="M15">
+        <v>25.5</v>
+      </c>
+      <c r="N15">
+        <v>1.66</v>
+      </c>
+      <c r="O15">
+        <v>0.82</v>
+      </c>
+      <c r="R15">
+        <v>3</v>
+      </c>
+      <c r="S15" s="3">
+        <v>2</v>
+      </c>
+      <c r="T15" s="3">
+        <v>3</v>
+      </c>
+      <c r="U15" s="3">
+        <v>3</v>
+      </c>
+      <c r="W15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16">
+        <v>3.2</v>
+      </c>
+      <c r="D16">
+        <v>53</v>
+      </c>
+      <c r="E16">
+        <v>28</v>
+      </c>
+      <c r="F16">
+        <v>25</v>
+      </c>
+      <c r="G16">
+        <v>12</v>
+      </c>
+      <c r="H16">
+        <v>1.53</v>
+      </c>
+      <c r="I16">
+        <v>11</v>
+      </c>
+      <c r="J16">
+        <v>3.87</v>
+      </c>
+      <c r="K16">
+        <v>170</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>657.9</v>
+      </c>
+      <c r="M16">
+        <v>38.5</v>
+      </c>
+      <c r="N16">
+        <v>1.74</v>
+      </c>
+      <c r="O16">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="R16">
+        <v>4</v>
+      </c>
+      <c r="S16" s="3">
+        <v>1</v>
+      </c>
+      <c r="T16" s="3">
+        <v>4</v>
+      </c>
+      <c r="U16" s="3">
+        <v>3</v>
+      </c>
+      <c r="W16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>1.83</v>
+      </c>
+      <c r="D17">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>9</v>
+      </c>
+      <c r="H17">
+        <v>1.03</v>
+      </c>
+      <c r="I17">
+        <v>28</v>
+      </c>
+      <c r="J17">
+        <v>6.95</v>
+      </c>
+      <c r="K17">
+        <v>82</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>569.9</v>
+      </c>
+      <c r="M17">
+        <v>22.7</v>
+      </c>
+      <c r="N17">
+        <v>1.75</v>
+      </c>
+      <c r="O17">
+        <v>1.51</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17" s="3">
+        <v>1</v>
+      </c>
+      <c r="T17" s="3">
+        <v>1</v>
+      </c>
+      <c r="U17" s="3">
+        <v>2</v>
+      </c>
+      <c r="V17" s="3">
+        <v>3</v>
+      </c>
+      <c r="W17" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>2.33</v>
+      </c>
+      <c r="D18">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>12</v>
+      </c>
+      <c r="G18">
+        <v>17</v>
+      </c>
+      <c r="H18">
+        <v>1.23</v>
+      </c>
+      <c r="I18">
+        <v>7</v>
+      </c>
+      <c r="J18">
+        <v>6.68</v>
+      </c>
+      <c r="K18">
+        <v>82</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>547.76</v>
+      </c>
+      <c r="M18">
+        <v>20.6</v>
+      </c>
+      <c r="N18">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O18">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18" s="3">
+        <v>2</v>
+      </c>
+      <c r="T18" s="3">
+        <v>2</v>
+      </c>
+      <c r="U18" s="3">
+        <v>2</v>
+      </c>
+      <c r="V18" s="3">
+        <v>3</v>
+      </c>
+      <c r="W18" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19">
+        <v>2.83</v>
+      </c>
+      <c r="D19">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>1.48</v>
+      </c>
+      <c r="I19">
+        <v>18</v>
+      </c>
+      <c r="J19">
+        <v>6.4</v>
+      </c>
+      <c r="K19">
+        <v>82</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>524.80000000000007</v>
+      </c>
+      <c r="M19">
+        <v>7.7</v>
+      </c>
+      <c r="N19">
+        <v>1.96</v>
+      </c>
+      <c r="O19">
+        <v>1.68</v>
+      </c>
+      <c r="R19">
+        <v>3</v>
+      </c>
+      <c r="S19" s="3">
+        <v>3</v>
+      </c>
+      <c r="T19" s="3">
+        <v>4</v>
+      </c>
+      <c r="U19" s="3">
+        <v>3</v>
+      </c>
+      <c r="V19" s="3">
+        <v>1</v>
+      </c>
+      <c r="W19" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D20">
+        <f>_xlfn.COVARIANCE.P(C2:C19,D2:D19)</f>
+        <v>2.5256790123456785</v>
+      </c>
+      <c r="E20">
+        <f>_xlfn.COVARIANCE.P(C2:C19,E2:E19)</f>
+        <v>1.4079629629629633</v>
+      </c>
+      <c r="F20">
+        <f>_xlfn.COVARIANCE.P(C2:C19,F2:F19)</f>
+        <v>1.2014814814814818</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="D22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="D23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.49741714287675043</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="D24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.37512926829179577</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.58743406566330192</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.2861346312331462</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.70373128780207561</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-0.16080569976918399</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7BCB02-3602-4A44-8CE0-E21AF6C35FCB}">
   <dimension ref="A1:N14"/>
@@ -7443,8 +10005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CC1D19-E16A-4AAF-9FF8-812D6FA9508B}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:K17"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -8145,14 +10707,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:K17">
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -8165,14 +10727,14 @@
         <color rgb="FF00B050"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
+        <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -8189,21 +10751,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="-1"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+        <color rgb="FF0000FF"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color theme="0"/>
-        <color rgb="FF0000FF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="num" val="-1"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
         <color rgb="FFFF0000"/>
         <color theme="0"/>
         <color rgb="FF0000FF"/>
@@ -8686,1158 +11248,2777 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82D0823-C23B-471A-9061-24EEDF7AA46D}">
-  <dimension ref="A1:R25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190565C2-E76B-42ED-9EC8-274449190C37}">
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:R19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.49741714287675043</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.37512926829179577</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.58743406566330192</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.2861346312331462</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.70373128780207561</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-0.16080569976918399</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3">
+        <v>-0.27553349895604706</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-1.6024902413363792E-2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.27730270597298456</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-0.26990611170219514</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.10569261208354001</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.26158260253115434</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.12290493735133645</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.20150328693532921</v>
+      </c>
+      <c r="F7" s="3">
+        <v>-0.46923368034496171</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3">
+        <v>-0.15537188403999283</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.21339027649905443</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-0.22778384247516881</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.46871088213578493</v>
+      </c>
+      <c r="F8" s="3">
+        <v>-0.35175414403899874</v>
+      </c>
+      <c r="G8" s="3">
+        <v>-7.9292673634728028E-2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3">
+        <v>-0.46375993097099433</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-0.62920245289124765</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-0.31376944967291692</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-0.49617082020774039</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-5.4145583713574676E-2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.11348284996446011</v>
+      </c>
+      <c r="H9" s="3">
+        <v>-3.7160150534346278E-2</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.50843368686885526</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.56537630148045415</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5.3314203058228093E-2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.64582328024664615</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-0.44745357114015788</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.30481821395475789</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.10365828371487115</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-0.63591858970802306</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.29644994895302984</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.20780116387478839</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-0.13598222625499751</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.37279333222199884</v>
+      </c>
+      <c r="F11" s="3">
+        <v>-0.55324302407023429</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.44469481570402292</v>
+      </c>
+      <c r="H11" s="3">
+        <v>-1.1227509969413055E-2</v>
+      </c>
+      <c r="I11" s="3">
+        <v>-1.9063007067456821E-2</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.77077494809384195</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.33609829800080343</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.53512879853944118</v>
+      </c>
+      <c r="D12" s="3">
+        <v>5.5978014267532857E-2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.60891410273764179</v>
+      </c>
+      <c r="F12" s="3">
+        <v>-0.13881104997097424</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.11556883976526144</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.13788158230422043</v>
+      </c>
+      <c r="I12" s="3">
+        <v>-0.43120901766826969</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.67320811010020931</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.50846648297744057</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="3">
+        <v>-0.16987209239306231</v>
+      </c>
+      <c r="C13" s="3">
+        <v>-0.16119430463143428</v>
+      </c>
+      <c r="D13" s="3">
+        <v>9.3028799117479116E-3</v>
+      </c>
+      <c r="E13" s="3">
+        <v>-0.20873998443460651</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.68302908696846687</v>
+      </c>
+      <c r="G13" s="3">
+        <v>-0.52503201191292825</v>
+      </c>
+      <c r="H13" s="3">
+        <v>-0.22221994466952372</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.10137139965361418</v>
+      </c>
+      <c r="J13" s="3">
+        <v>-0.52305505217408343</v>
+      </c>
+      <c r="K13" s="3">
+        <v>-0.54675638582616926</v>
+      </c>
+      <c r="L13" s="3">
+        <v>-0.4089070131414197</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="1">
+        <v>-0.14663744788404146</v>
+      </c>
+      <c r="C14" s="1">
+        <v>-0.4308918493419806</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-4.2340117569404645E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-0.4882308824561653</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-0.33519099012333969</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.2899398920994154</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5.5150972771112965E-2</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.7781911830810988</v>
+      </c>
+      <c r="J14" s="1">
+        <v>-0.46250061217627608</v>
+      </c>
+      <c r="K14" s="1">
+        <v>3.967585477137668E-3</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-0.58455581767625042</v>
+      </c>
+      <c r="M14" s="1">
+        <v>-8.1546966830539303E-2</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B2:N14">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E5245A-ED3D-483B-804D-097BDB749309}">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection sqref="A1:N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.49741714287675043</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.37512926829179577</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.58743406566330192</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.2861346312331462</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.70373128780207561</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-0.16080569976918399</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3">
+        <v>-0.27553349895604706</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-1.6024902413363792E-2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.27730270597298456</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-0.26990611170219514</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.10569261208354001</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.26158260253115434</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.12290493735133645</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.20150328693532921</v>
+      </c>
+      <c r="F7" s="3">
+        <v>-0.46923368034496171</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3">
+        <v>-0.15537188403999283</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.21339027649905443</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-0.22778384247516881</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.46871088213578493</v>
+      </c>
+      <c r="F8" s="3">
+        <v>-0.35175414403899874</v>
+      </c>
+      <c r="G8" s="3">
+        <v>-7.9292673634728028E-2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3">
+        <v>-0.46375993097099433</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-0.62920245289124765</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-0.31376944967291692</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-0.49617082020774039</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-5.4145583713574676E-2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.11348284996446011</v>
+      </c>
+      <c r="H9" s="3">
+        <v>-3.7160150534346278E-2</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.50843368686885526</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.56537630148045415</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5.3314203058228093E-2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.64582328024664615</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-0.44745357114015788</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.30481821395475789</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.10365828371487115</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-0.63591858970802306</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.29644994895302984</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.20780116387478839</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-0.13598222625499751</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.37279333222199884</v>
+      </c>
+      <c r="F11" s="3">
+        <v>-0.55324302407023429</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.44469481570402292</v>
+      </c>
+      <c r="H11" s="3">
+        <v>-1.1227509969413055E-2</v>
+      </c>
+      <c r="I11" s="3">
+        <v>-1.9063007067456821E-2</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.77077494809384195</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.33609829800080343</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.53512879853944118</v>
+      </c>
+      <c r="D12" s="3">
+        <v>5.5978014267532857E-2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.60891410273764179</v>
+      </c>
+      <c r="F12" s="3">
+        <v>-0.13881104997097424</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.11556883976526144</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.13788158230422043</v>
+      </c>
+      <c r="I12" s="3">
+        <v>-0.43120901766826969</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.67320811010020931</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.50846648297744057</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="3">
+        <v>-0.16987209239306231</v>
+      </c>
+      <c r="C13" s="3">
+        <v>-0.16119430463143428</v>
+      </c>
+      <c r="D13" s="3">
+        <v>9.3028799117479116E-3</v>
+      </c>
+      <c r="E13" s="3">
+        <v>-0.20873998443460651</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.68302908696846687</v>
+      </c>
+      <c r="G13" s="3">
+        <v>-0.52503201191292825</v>
+      </c>
+      <c r="H13" s="3">
+        <v>-0.22221994466952372</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.10137139965361418</v>
+      </c>
+      <c r="J13" s="3">
+        <v>-0.52305505217408343</v>
+      </c>
+      <c r="K13" s="3">
+        <v>-0.54675638582616926</v>
+      </c>
+      <c r="L13" s="3">
+        <v>-0.4089070131414197</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="1">
+        <v>-0.14663744788404146</v>
+      </c>
+      <c r="C14" s="1">
+        <v>-0.4308918493419806</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-4.2340117569404645E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-0.4882308824561653</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-0.33519099012333969</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.2899398920994154</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5.5150972771112965E-2</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.7781911830810988</v>
+      </c>
+      <c r="J14" s="1">
+        <v>-0.46250061217627608</v>
+      </c>
+      <c r="K14" s="1">
+        <v>3.967585477137668E-3</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-0.58455581767625042</v>
+      </c>
+      <c r="M14" s="1">
+        <v>-8.1546966830539303E-2</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CF48B6-AAA2-49DB-B782-993EC802B8B2}">
+  <dimension ref="A1:V22"/>
+  <sheetViews>
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="N23" sqref="A1:N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="10.4140625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.58203125" customWidth="1"/>
+    <col min="1" max="1" width="25.25" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.9140625" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
     <col min="6" max="6" width="12.9140625" customWidth="1"/>
-    <col min="7" max="7" width="6.25" customWidth="1"/>
+    <col min="7" max="7" width="14.9140625" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="14.4140625" customWidth="1"/>
+    <col min="10" max="10" width="14.08203125" customWidth="1"/>
+    <col min="11" max="11" width="24.4140625" customWidth="1"/>
+    <col min="12" max="12" width="17.5" customWidth="1"/>
+    <col min="13" max="13" width="18.25" customWidth="1"/>
+    <col min="14" max="14" width="15.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2">
-        <v>1.83</v>
-      </c>
-      <c r="D2">
-        <v>14</v>
-      </c>
-      <c r="E2">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>1.25</v>
-      </c>
-      <c r="I2">
-        <v>4</v>
-      </c>
-      <c r="J2">
-        <v>5.78</v>
-      </c>
-      <c r="K2">
-        <v>97</v>
-      </c>
-      <c r="L2">
-        <f>PRODUCT(J2,K2)</f>
-        <v>560.66</v>
-      </c>
-      <c r="M2">
-        <v>2</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>2</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>3</v>
-      </c>
-      <c r="R2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3">
-        <v>1.83</v>
-      </c>
-      <c r="D3">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>13</v>
-      </c>
-      <c r="H3">
-        <v>1.31</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
-      </c>
-      <c r="J3">
-        <v>6.15</v>
-      </c>
-      <c r="K3">
-        <v>97</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L19" si="0">PRODUCT(J3,K3)</f>
-        <v>596.55000000000007</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>2</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>3</v>
-      </c>
-      <c r="R3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4">
-        <v>2.17</v>
-      </c>
-      <c r="D4">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
+      <c r="H1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.49741714287675043</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.37512926829179577</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.58743406566330192</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>9</v>
-      </c>
-      <c r="H4">
-        <v>1.63</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
-      <c r="J4">
-        <v>6.37</v>
-      </c>
-      <c r="K4">
-        <v>97</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="0"/>
-        <v>617.89</v>
-      </c>
-      <c r="M4">
-        <v>3</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>2</v>
-      </c>
-      <c r="P4">
-        <v>2</v>
-      </c>
-      <c r="Q4">
-        <v>2</v>
-      </c>
-      <c r="R4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D5">
-        <v>38</v>
-      </c>
-      <c r="E5">
-        <v>27</v>
-      </c>
-      <c r="F5">
-        <v>11</v>
-      </c>
-      <c r="G5">
-        <v>19</v>
-      </c>
-      <c r="H5">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="I5">
-        <v>6</v>
-      </c>
-      <c r="J5">
-        <v>4.93</v>
-      </c>
-      <c r="K5">
-        <v>90</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>443.7</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5" s="4">
-        <v>2</v>
-      </c>
-      <c r="O5" s="4">
-        <v>3</v>
-      </c>
-      <c r="P5" s="4">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>2</v>
-      </c>
-      <c r="R5" s="4"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6">
-        <v>2.4</v>
-      </c>
-      <c r="D6">
+      <c r="B5" s="7">
+        <v>0.2861346312331462</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.70373128780207561</v>
+      </c>
+      <c r="D5" s="7">
+        <v>-0.16080569976918399</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E6">
-        <v>21</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>14</v>
-      </c>
-      <c r="H6">
-        <v>1.22</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6">
-        <v>5.69</v>
-      </c>
-      <c r="K6">
-        <v>90</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>512.1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6" s="3">
-        <v>2</v>
-      </c>
-      <c r="O6" s="3">
-        <v>3</v>
-      </c>
-      <c r="P6" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>3</v>
-      </c>
+      <c r="B6" s="7">
+        <v>-0.27553349895604706</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-1.6024902413363792E-2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.27730270597298456</v>
+      </c>
+      <c r="E6" s="7">
+        <v>-0.26990611170219514</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7">
-        <v>1.6</v>
-      </c>
-      <c r="D7">
-        <v>18</v>
-      </c>
-      <c r="E7">
-        <v>13</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>16</v>
-      </c>
-      <c r="H7">
-        <v>1.43</v>
-      </c>
-      <c r="I7">
-        <v>8</v>
-      </c>
-      <c r="J7">
-        <v>6.57</v>
-      </c>
-      <c r="K7">
-        <v>90</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
-        <v>591.30000000000007</v>
-      </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
-      <c r="N7" s="3">
-        <v>1</v>
-      </c>
-      <c r="O7" s="3">
-        <v>2</v>
-      </c>
-      <c r="P7" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>1</v>
-      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.10569261208354001</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.26158260253115434</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.12290493735133645</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.20150328693532921</v>
+      </c>
+      <c r="F7" s="7">
+        <v>-0.46923368034496171</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8">
-        <v>2.5</v>
-      </c>
-      <c r="D8">
-        <v>42</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>42</v>
-      </c>
-      <c r="G8">
-        <v>9</v>
-      </c>
-      <c r="H8">
-        <v>1.33</v>
-      </c>
-      <c r="I8">
-        <v>24</v>
-      </c>
-      <c r="J8">
-        <v>4.33</v>
-      </c>
-      <c r="K8">
-        <v>180</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
-        <v>779.4</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-      <c r="N8" s="3">
-        <v>2</v>
-      </c>
-      <c r="O8" s="3">
-        <v>2</v>
-      </c>
-      <c r="P8" s="3">
-        <v>4</v>
-      </c>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="7">
+        <v>-0.15537188403999283</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.21339027649905443</v>
+      </c>
+      <c r="D8" s="7">
+        <v>-0.22778384247516881</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.46871088213578493</v>
+      </c>
+      <c r="F8" s="7">
+        <v>-0.35175414403899874</v>
+      </c>
+      <c r="G8" s="7">
+        <v>-7.9292673634728028E-2</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>33</v>
-      </c>
-      <c r="E9">
-        <v>18</v>
-      </c>
-      <c r="F9">
-        <v>15</v>
-      </c>
-      <c r="G9">
-        <v>10</v>
-      </c>
-      <c r="H9">
-        <v>1.37</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-      <c r="J9">
-        <v>6.1</v>
-      </c>
-      <c r="K9">
-        <v>180</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="0"/>
-        <v>1098</v>
-      </c>
-      <c r="M9">
-        <v>3</v>
-      </c>
-      <c r="N9" s="3">
-        <v>3</v>
-      </c>
-      <c r="O9" s="3">
-        <v>4</v>
-      </c>
-      <c r="P9" s="3">
-        <v>2</v>
-      </c>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="7">
+        <v>-0.46375993097099433</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-0.62920245289124765</v>
+      </c>
+      <c r="D9" s="7">
+        <v>-0.31376944967291692</v>
+      </c>
+      <c r="E9" s="7">
+        <v>-0.49617082020774039</v>
+      </c>
+      <c r="F9" s="7">
+        <v>-5.4145583713574676E-2</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.11348284996446011</v>
+      </c>
+      <c r="H9" s="7">
+        <v>-3.7160150534346278E-2</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>40</v>
-      </c>
-      <c r="E10">
-        <v>22</v>
-      </c>
-      <c r="F10">
-        <v>18</v>
-      </c>
-      <c r="G10">
-        <v>12</v>
-      </c>
-      <c r="H10">
-        <v>1.45</v>
-      </c>
-      <c r="I10">
-        <v>22</v>
-      </c>
-      <c r="J10">
-        <v>4.38</v>
-      </c>
-      <c r="K10">
-        <v>180</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="0"/>
-        <v>788.4</v>
-      </c>
-      <c r="M10">
-        <v>3</v>
-      </c>
-      <c r="N10" s="3">
-        <v>1</v>
-      </c>
-      <c r="O10" s="3">
-        <v>2</v>
-      </c>
-      <c r="P10" s="3">
-        <v>2</v>
-      </c>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.50843368686885526</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.56537630148045415</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5.3314203058228093E-2</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.64582328024664615</v>
+      </c>
+      <c r="F10" s="7">
+        <v>-0.44745357114015788</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.30481821395475789</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.10365828371487115</v>
+      </c>
+      <c r="I10" s="7">
+        <v>-0.63591858970802306</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11">
-        <v>2.8</v>
-      </c>
-      <c r="D11">
-        <v>18</v>
-      </c>
-      <c r="E11">
-        <v>13</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11">
-        <v>16</v>
-      </c>
-      <c r="H11">
-        <v>0.99</v>
-      </c>
-      <c r="I11">
-        <v>6</v>
-      </c>
-      <c r="J11">
-        <v>4.33</v>
-      </c>
-      <c r="K11">
-        <v>132</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="0"/>
-        <v>571.56000000000006</v>
-      </c>
-      <c r="M11">
-        <v>3</v>
-      </c>
-      <c r="N11" s="3">
-        <v>3</v>
-      </c>
-      <c r="O11" s="3">
-        <v>3</v>
-      </c>
-      <c r="P11" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>4</v>
-      </c>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.29644994895302984</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.20780116387478839</v>
+      </c>
+      <c r="D11" s="7">
+        <v>-0.13598222625499751</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.37279333222199884</v>
+      </c>
+      <c r="F11" s="7">
+        <v>-0.55324302407023429</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.44469481570402292</v>
+      </c>
+      <c r="H11" s="7">
+        <v>-1.1227509969413055E-2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>-1.9063007067456821E-2</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0.77077494809384195</v>
+      </c>
+      <c r="K11" s="7">
+        <v>1</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12">
-        <v>2.8</v>
-      </c>
-      <c r="D12">
-        <v>38</v>
-      </c>
-      <c r="E12">
-        <v>27</v>
-      </c>
-      <c r="F12">
-        <v>12</v>
-      </c>
-      <c r="G12">
-        <v>14</v>
-      </c>
-      <c r="H12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I12">
-        <v>7</v>
-      </c>
-      <c r="J12">
-        <v>3.83</v>
-      </c>
-      <c r="K12">
-        <v>132</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="0"/>
-        <v>505.56</v>
-      </c>
-      <c r="M12">
-        <v>2</v>
-      </c>
-      <c r="N12" s="3">
-        <v>4</v>
-      </c>
-      <c r="O12" s="3">
-        <v>3</v>
-      </c>
-      <c r="P12" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>26</v>
-      </c>
-      <c r="E13">
-        <v>9</v>
-      </c>
-      <c r="F13">
-        <v>17</v>
-      </c>
-      <c r="G13">
-        <v>14</v>
-      </c>
-      <c r="H13">
-        <v>1.28</v>
-      </c>
-      <c r="I13">
-        <v>13</v>
-      </c>
-      <c r="J13">
-        <v>4.63</v>
-      </c>
-      <c r="K13">
-        <v>132</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="0"/>
-        <v>611.16</v>
-      </c>
-      <c r="M13">
-        <v>3</v>
-      </c>
-      <c r="N13" s="3">
-        <v>2</v>
-      </c>
-      <c r="O13" s="3">
-        <v>2</v>
-      </c>
-      <c r="P13" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14">
-        <v>2.5</v>
-      </c>
-      <c r="D14">
-        <v>24</v>
-      </c>
-      <c r="E14">
-        <v>12</v>
-      </c>
-      <c r="F14">
-        <v>12</v>
-      </c>
-      <c r="G14">
-        <v>10</v>
-      </c>
-      <c r="H14">
-        <v>1.53</v>
-      </c>
-      <c r="I14">
-        <v>6</v>
-      </c>
-      <c r="J14">
-        <v>5.88</v>
-      </c>
-      <c r="K14">
-        <v>170</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="0"/>
-        <v>999.6</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14" s="3">
-        <v>2</v>
-      </c>
-      <c r="O14" s="3">
-        <v>3</v>
-      </c>
-      <c r="P14" s="3">
-        <v>3</v>
-      </c>
-      <c r="R14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15">
-        <v>2.8</v>
-      </c>
-      <c r="D15">
-        <v>17</v>
-      </c>
-      <c r="E15">
-        <v>7</v>
-      </c>
-      <c r="F15">
-        <v>10</v>
-      </c>
-      <c r="G15">
-        <v>8</v>
-      </c>
-      <c r="H15">
-        <v>1.39</v>
-      </c>
-      <c r="I15">
-        <v>4</v>
-      </c>
-      <c r="J15">
-        <v>4.33</v>
-      </c>
-      <c r="K15">
-        <v>170</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="0"/>
-        <v>736.1</v>
-      </c>
-      <c r="M15">
-        <v>3</v>
-      </c>
-      <c r="N15" s="3">
-        <v>2</v>
-      </c>
-      <c r="O15" s="3">
-        <v>3</v>
-      </c>
-      <c r="P15" s="3">
-        <v>3</v>
-      </c>
-      <c r="R15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16">
-        <v>3.2</v>
-      </c>
-      <c r="D16">
-        <v>53</v>
-      </c>
-      <c r="E16">
-        <v>28</v>
-      </c>
-      <c r="F16">
-        <v>25</v>
-      </c>
-      <c r="G16">
-        <v>12</v>
-      </c>
-      <c r="H16">
-        <v>1.53</v>
-      </c>
-      <c r="I16">
-        <v>11</v>
-      </c>
-      <c r="J16">
-        <v>3.87</v>
-      </c>
-      <c r="K16">
-        <v>170</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="0"/>
-        <v>657.9</v>
-      </c>
-      <c r="M16">
-        <v>4</v>
-      </c>
-      <c r="N16" s="3">
-        <v>1</v>
-      </c>
-      <c r="O16" s="3">
-        <v>4</v>
-      </c>
-      <c r="P16" s="3">
-        <v>3</v>
-      </c>
-      <c r="R16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17">
-        <v>1.83</v>
-      </c>
-      <c r="D17">
-        <v>12</v>
-      </c>
-      <c r="E17">
-        <v>6</v>
-      </c>
-      <c r="F17">
-        <v>6</v>
-      </c>
-      <c r="G17">
-        <v>9</v>
-      </c>
-      <c r="H17">
-        <v>1.03</v>
-      </c>
-      <c r="I17">
-        <v>28</v>
-      </c>
-      <c r="J17">
-        <v>6.95</v>
-      </c>
-      <c r="K17">
-        <v>82</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="0"/>
-        <v>569.9</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1</v>
-      </c>
-      <c r="P17" s="3">
-        <v>2</v>
-      </c>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.33609829800080343</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.53512879853944118</v>
+      </c>
+      <c r="D12" s="7">
+        <v>5.5978014267532857E-2</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.60891410273764179</v>
+      </c>
+      <c r="F12" s="7">
+        <v>-0.13881104997097424</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.11556883976526144</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.13788158230422043</v>
+      </c>
+      <c r="I12" s="7">
+        <v>-0.43120901766826969</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0.67320811010020931</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.50846648297744057</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1</v>
+      </c>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="7">
+        <v>-0.16987209239306231</v>
+      </c>
+      <c r="C13" s="7">
+        <v>-0.16119430463143428</v>
+      </c>
+      <c r="D13" s="7">
+        <v>9.3028799117479116E-3</v>
+      </c>
+      <c r="E13" s="7">
+        <v>-0.20873998443460651</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.68302908696846687</v>
+      </c>
+      <c r="G13" s="7">
+        <v>-0.52503201191292825</v>
+      </c>
+      <c r="H13" s="7">
+        <v>-0.22221994466952372</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0.10137139965361418</v>
+      </c>
+      <c r="J13" s="7">
+        <v>-0.52305505217408343</v>
+      </c>
+      <c r="K13" s="7">
+        <v>-0.54675638582616926</v>
+      </c>
+      <c r="L13" s="7">
+        <v>-0.4089070131414197</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1</v>
+      </c>
+      <c r="N13" s="7"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="7">
+        <v>-0.14663744788404146</v>
+      </c>
+      <c r="C14" s="7">
+        <v>-0.4308918493419806</v>
+      </c>
+      <c r="D14" s="7">
+        <v>-4.2340117569404645E-2</v>
+      </c>
+      <c r="E14" s="7">
+        <v>-0.4882308824561653</v>
+      </c>
+      <c r="F14" s="7">
+        <v>-0.33519099012333969</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.2899398920994154</v>
+      </c>
+      <c r="H14" s="7">
+        <v>5.5150972771112965E-2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0.7781911830810988</v>
+      </c>
+      <c r="J14" s="7">
+        <v>-0.46250061217627608</v>
+      </c>
+      <c r="K14" s="7">
+        <v>3.967585477137668E-3</v>
+      </c>
+      <c r="L14" s="7">
+        <v>-0.58455581767625042</v>
+      </c>
+      <c r="M14" s="7">
+        <v>-8.1546966830539303E-2</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.48727897293820693</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.40060840071599274</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.27331599931140754</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.24743502053780483</v>
+      </c>
+      <c r="F17" s="7">
+        <v>-0.31212558389235334</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.40892975612165344</v>
+      </c>
+      <c r="H17" s="7">
+        <v>5.4789519094818377E-2</v>
+      </c>
+      <c r="I17" s="7">
+        <v>-0.46364904138014712</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0.49034679343150978</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0.22258680902344716</v>
+      </c>
+      <c r="L17" s="7">
+        <v>9.7350560213168413E-3</v>
+      </c>
+      <c r="M17" s="7">
+        <v>-0.26619912766365406</v>
+      </c>
+      <c r="N17" s="7">
+        <v>5.9843733238584502E-2</v>
+      </c>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
       <c r="Q17" s="3">
-        <v>3</v>
-      </c>
-      <c r="R17" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18">
-        <v>2.33</v>
-      </c>
-      <c r="D18">
-        <v>22</v>
-      </c>
-      <c r="E18">
-        <v>10</v>
-      </c>
-      <c r="F18">
-        <v>12</v>
-      </c>
-      <c r="G18">
-        <v>17</v>
-      </c>
-      <c r="H18">
-        <v>1.23</v>
-      </c>
-      <c r="I18">
-        <v>7</v>
-      </c>
-      <c r="J18">
-        <v>6.68</v>
-      </c>
-      <c r="K18">
-        <v>82</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="0"/>
-        <v>547.76</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18" s="3">
-        <v>2</v>
-      </c>
-      <c r="O18" s="3">
-        <v>2</v>
-      </c>
-      <c r="P18" s="3">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.63115140782382806</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.16503060360433322</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.22752105047687546</v>
+      </c>
+      <c r="E18" s="7">
+        <v>2.2850473357599852E-2</v>
+      </c>
+      <c r="F18" s="7">
+        <v>6.538334226907902E-2</v>
+      </c>
+      <c r="G18" s="7">
+        <v>-0.35098690447348374</v>
+      </c>
+      <c r="H18" s="7">
+        <v>-0.16825529213901735</v>
+      </c>
+      <c r="I18" s="7">
+        <v>-0.29577113960117107</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0.15668135425800581</v>
+      </c>
+      <c r="K18" s="7">
+        <v>4.7139801348052318E-2</v>
+      </c>
+      <c r="L18" s="7">
+        <v>-1.7755773196070825E-2</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0.19679772880377144</v>
+      </c>
+      <c r="N18" s="7">
+        <v>-0.1307537658873475</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
       <c r="Q18" s="3">
-        <v>3</v>
+        <v>8.8431537657076342E-2</v>
       </c>
       <c r="R18" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19">
-        <v>2.83</v>
-      </c>
-      <c r="D19">
-        <v>24</v>
-      </c>
-      <c r="E19">
-        <v>15</v>
-      </c>
-      <c r="F19">
-        <v>9</v>
-      </c>
-      <c r="G19">
-        <v>10</v>
-      </c>
-      <c r="H19">
-        <v>1.48</v>
-      </c>
-      <c r="I19">
-        <v>18</v>
-      </c>
-      <c r="J19">
-        <v>6.4</v>
-      </c>
-      <c r="K19">
-        <v>82</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="0"/>
-        <v>524.80000000000007</v>
-      </c>
-      <c r="M19">
-        <v>3</v>
-      </c>
-      <c r="N19" s="3">
-        <v>3</v>
-      </c>
-      <c r="O19" s="3">
-        <v>4</v>
-      </c>
-      <c r="P19" s="3">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.84353466793190679</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.43171504224152485</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.53078342499003606</v>
+      </c>
+      <c r="E19" s="7">
+        <v>5.9304956137644242E-2</v>
+      </c>
+      <c r="F19" s="7">
+        <v>-5.8514689807866178E-2</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.24535111229017414</v>
+      </c>
+      <c r="H19" s="7">
+        <v>-0.35795157435355757</v>
+      </c>
+      <c r="I19" s="7">
+        <v>-0.3028304745975125</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0.32934179862753188</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0.24217598944513133</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0.16654652064959716</v>
+      </c>
+      <c r="M19" s="7">
+        <v>-1.2343795186014923E-2</v>
+      </c>
+      <c r="N19" s="7">
+        <v>-2.6700893826524828E-2</v>
+      </c>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
       <c r="Q19" s="3">
-        <v>1</v>
+        <v>0.43326002185497792</v>
       </c>
       <c r="R19" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="D20">
-        <f>_xlfn.COVARIANCE.P(C2:C19,D2:D19)</f>
-        <v>2.5256790123456785</v>
-      </c>
-      <c r="E20">
-        <f>_xlfn.COVARIANCE.P(C2:C19,E2:E19)</f>
-        <v>1.4079629629629633</v>
-      </c>
-      <c r="F20">
-        <f>_xlfn.COVARIANCE.P(C2:C19,F2:F19)</f>
-        <v>1.2014814814814818</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="D22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="D23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0.49741714287675043</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="D24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0.37512926829179577</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0.58743406566330192</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1</v>
-      </c>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="D25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0.2861346312331462</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0.70373128780207561</v>
-      </c>
-      <c r="G25" s="1">
-        <v>-0.16080569976918399</v>
-      </c>
-      <c r="H25" s="1">
+        <v>0.55529194673618043</v>
+      </c>
+      <c r="S19" s="3">
+        <v>1</v>
+      </c>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.3504775976947806</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.39418837431593939</v>
+      </c>
+      <c r="D20" s="7">
+        <v>5.9806502572530347E-2</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.43100445302343054</v>
+      </c>
+      <c r="F20" s="7">
+        <v>-0.37251555186067148</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0.38967495041798145</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.27048306581064518</v>
+      </c>
+      <c r="I20" s="7">
+        <v>-6.9966713413025156E-2</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0.26674258944989487</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0.23500479079440484</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0.50318878136067169</v>
+      </c>
+      <c r="M20" s="7">
+        <v>-0.22590982118480771</v>
+      </c>
+      <c r="N20" s="7">
+        <v>-0.16617523343500268</v>
+      </c>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3">
+        <v>-3.2325409191761856E-2</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-4.7166663063657924E-2</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0.31228050490911896</v>
+      </c>
+      <c r="T20" s="3">
+        <v>1</v>
+      </c>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.31428300138116128</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-4.2044654275231463E-2</v>
+      </c>
+      <c r="D21" s="7">
+        <v>-8.5174700942892961E-3</v>
+      </c>
+      <c r="E21" s="7">
+        <v>-5.0165687270065561E-2</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.14932347806729435</v>
+      </c>
+      <c r="G21" s="7">
+        <v>-0.73745616281796822</v>
+      </c>
+      <c r="H21" s="7">
+        <v>-0.20752948453913575</v>
+      </c>
+      <c r="I21" s="7">
+        <v>-0.46755251005182863</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0.46812857442016226</v>
+      </c>
+      <c r="K21" s="7">
+        <v>-0.10031515544950917</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0.25509769971958146</v>
+      </c>
+      <c r="M21" s="7">
+        <v>9.782701798047562E-2</v>
+      </c>
+      <c r="N21" s="7">
+        <v>-0.46160888129859212</v>
+      </c>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3">
+        <v>-0.24494606173841921</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0.3282442748091603</v>
+      </c>
+      <c r="S21" s="3">
+        <v>-0.10549162715232825</v>
+      </c>
+      <c r="T21" s="3">
+        <v>-0.52832167935850005</v>
+      </c>
+      <c r="U21" s="3">
+        <v>1</v>
+      </c>
+      <c r="V21" s="3"/>
+    </row>
+    <row r="22" spans="1:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0.51301757370710233</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0.6339516938177725</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.5210501057189062</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0.61611773060659436</v>
+      </c>
+      <c r="F22" s="8">
+        <v>-0.10623145515131185</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0.13856115646859674</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0.26332464578952858</v>
+      </c>
+      <c r="I22" s="8">
+        <v>-0.39023075839299021</v>
+      </c>
+      <c r="J22" s="8">
+        <v>9.8638885194826789E-2</v>
+      </c>
+      <c r="K22" s="8">
+        <v>-0.36209046153744234</v>
+      </c>
+      <c r="L22" s="8">
+        <v>0.14272363905168989</v>
+      </c>
+      <c r="M22" s="8">
+        <v>0.13078921224561363</v>
+      </c>
+      <c r="N22" s="8">
+        <v>1.5308147876120287E-2</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1">
+        <v>0.55470019622522915</v>
+      </c>
+      <c r="R22" s="1">
+        <v>-0.1272569525951556</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0.31917252681128727</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0.30508510792387589</v>
+      </c>
+      <c r="U22" s="1">
+        <v>-0.29277002188455997</v>
+      </c>
+      <c r="V22" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B2:N22">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8F9043-65AD-4551-BBEE-BDD8912AB952}">
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="25.25" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.9140625" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="12.9140625" customWidth="1"/>
+    <col min="7" max="7" width="14.9140625" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="14.4140625" customWidth="1"/>
+    <col min="10" max="10" width="14.08203125" customWidth="1"/>
+    <col min="11" max="11" width="24.4140625" customWidth="1"/>
+    <col min="12" max="12" width="17.5" customWidth="1"/>
+    <col min="13" max="13" width="18.25" customWidth="1"/>
+    <col min="14" max="14" width="15.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.49741714287675043</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.37512926829179577</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.58743406566330192</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.2861346312331462</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.70373128780207561</v>
+      </c>
+      <c r="D5" s="7">
+        <v>-0.16080569976918399</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="7">
+        <v>-0.27553349895604706</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-1.6024902413363792E-2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.27730270597298456</v>
+      </c>
+      <c r="E6" s="7">
+        <v>-0.26990611170219514</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.10569261208354001</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.26158260253115434</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.12290493735133645</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.20150328693532921</v>
+      </c>
+      <c r="F7" s="7">
+        <v>-0.46923368034496171</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="7">
+        <v>-0.15537188403999283</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.21339027649905443</v>
+      </c>
+      <c r="D8" s="7">
+        <v>-0.22778384247516881</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.46871088213578493</v>
+      </c>
+      <c r="F8" s="7">
+        <v>-0.35175414403899874</v>
+      </c>
+      <c r="G8" s="7">
+        <v>-7.9292673634728028E-2</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="7">
+        <v>-0.46375993097099433</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-0.62920245289124765</v>
+      </c>
+      <c r="D9" s="7">
+        <v>-0.31376944967291692</v>
+      </c>
+      <c r="E9" s="7">
+        <v>-0.49617082020774039</v>
+      </c>
+      <c r="F9" s="7">
+        <v>-5.4145583713574676E-2</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.11348284996446011</v>
+      </c>
+      <c r="H9" s="7">
+        <v>-3.7160150534346278E-2</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.50843368686885526</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.56537630148045415</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5.3314203058228093E-2</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.64582328024664615</v>
+      </c>
+      <c r="F10" s="7">
+        <v>-0.44745357114015788</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.30481821395475789</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.10365828371487115</v>
+      </c>
+      <c r="I10" s="7">
+        <v>-0.63591858970802306</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.29644994895302984</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.20780116387478839</v>
+      </c>
+      <c r="D11" s="7">
+        <v>-0.13598222625499751</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.37279333222199884</v>
+      </c>
+      <c r="F11" s="7">
+        <v>-0.55324302407023429</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.44469481570402292</v>
+      </c>
+      <c r="H11" s="7">
+        <v>-1.1227509969413055E-2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>-1.9063007067456821E-2</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0.77077494809384195</v>
+      </c>
+      <c r="K11" s="7">
+        <v>1</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.33609829800080343</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.53512879853944118</v>
+      </c>
+      <c r="D12" s="7">
+        <v>5.5978014267532857E-2</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.60891410273764179</v>
+      </c>
+      <c r="F12" s="7">
+        <v>-0.13881104997097424</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.11556883976526144</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.13788158230422043</v>
+      </c>
+      <c r="I12" s="7">
+        <v>-0.43120901766826969</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0.67320811010020931</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.50846648297744057</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1</v>
+      </c>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="7">
+        <v>-0.16987209239306231</v>
+      </c>
+      <c r="C13" s="7">
+        <v>-0.16119430463143428</v>
+      </c>
+      <c r="D13" s="7">
+        <v>9.3028799117479116E-3</v>
+      </c>
+      <c r="E13" s="7">
+        <v>-0.20873998443460651</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.68302908696846687</v>
+      </c>
+      <c r="G13" s="7">
+        <v>-0.52503201191292825</v>
+      </c>
+      <c r="H13" s="7">
+        <v>-0.22221994466952372</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0.10137139965361418</v>
+      </c>
+      <c r="J13" s="7">
+        <v>-0.52305505217408343</v>
+      </c>
+      <c r="K13" s="7">
+        <v>-0.54675638582616926</v>
+      </c>
+      <c r="L13" s="7">
+        <v>-0.4089070131414197</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1</v>
+      </c>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="7">
+        <v>-0.14663744788404146</v>
+      </c>
+      <c r="C14" s="7">
+        <v>-0.4308918493419806</v>
+      </c>
+      <c r="D14" s="7">
+        <v>-4.2340117569404645E-2</v>
+      </c>
+      <c r="E14" s="7">
+        <v>-0.4882308824561653</v>
+      </c>
+      <c r="F14" s="7">
+        <v>-0.33519099012333969</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.2899398920994154</v>
+      </c>
+      <c r="H14" s="7">
+        <v>5.5150972771112965E-2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0.7781911830810988</v>
+      </c>
+      <c r="J14" s="7">
+        <v>-0.46250061217627608</v>
+      </c>
+      <c r="K14" s="7">
+        <v>3.967585477137668E-3</v>
+      </c>
+      <c r="L14" s="7">
+        <v>-0.58455581767625042</v>
+      </c>
+      <c r="M14" s="7">
+        <v>-8.1546966830539303E-2</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="14"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.48727897293820693</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.40060840071599274</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.27331599931140754</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.24743502053780483</v>
+      </c>
+      <c r="F16" s="7">
+        <v>-0.31212558389235334</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.40892975612165344</v>
+      </c>
+      <c r="H16" s="7">
+        <v>5.4789519094818377E-2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>-0.46364904138014712</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.49034679343150978</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0.22258680902344716</v>
+      </c>
+      <c r="L16" s="7">
+        <v>9.7350560213168413E-3</v>
+      </c>
+      <c r="M16" s="7">
+        <v>-0.26619912766365406</v>
+      </c>
+      <c r="N16" s="7">
+        <v>5.9843733238584502E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.63115140782382806</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.16503060360433322</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.22752105047687546</v>
+      </c>
+      <c r="E17" s="7">
+        <v>2.2850473357599852E-2</v>
+      </c>
+      <c r="F17" s="7">
+        <v>6.538334226907902E-2</v>
+      </c>
+      <c r="G17" s="7">
+        <v>-0.35098690447348374</v>
+      </c>
+      <c r="H17" s="7">
+        <v>-0.16825529213901735</v>
+      </c>
+      <c r="I17" s="7">
+        <v>-0.29577113960117107</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0.15668135425800581</v>
+      </c>
+      <c r="K17" s="7">
+        <v>4.7139801348052318E-2</v>
+      </c>
+      <c r="L17" s="7">
+        <v>-1.7755773196070825E-2</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0.19679772880377144</v>
+      </c>
+      <c r="N17" s="7">
+        <v>-0.1307537658873475</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.84353466793190679</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.43171504224152485</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.53078342499003606</v>
+      </c>
+      <c r="E18" s="7">
+        <v>5.9304956137644242E-2</v>
+      </c>
+      <c r="F18" s="7">
+        <v>-5.8514689807866178E-2</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.24535111229017414</v>
+      </c>
+      <c r="H18" s="7">
+        <v>-0.35795157435355757</v>
+      </c>
+      <c r="I18" s="7">
+        <v>-0.3028304745975125</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0.32934179862753188</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0.24217598944513133</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0.16654652064959716</v>
+      </c>
+      <c r="M18" s="7">
+        <v>-1.2343795186014923E-2</v>
+      </c>
+      <c r="N18" s="7">
+        <v>-2.6700893826524828E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.3504775976947806</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.39418837431593939</v>
+      </c>
+      <c r="D19" s="7">
+        <v>5.9806502572530347E-2</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.43100445302343054</v>
+      </c>
+      <c r="F19" s="7">
+        <v>-0.37251555186067148</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.38967495041798145</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.27048306581064518</v>
+      </c>
+      <c r="I19" s="7">
+        <v>-6.9966713413025156E-2</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0.26674258944989487</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0.23500479079440484</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0.50318878136067169</v>
+      </c>
+      <c r="M19" s="7">
+        <v>-0.22590982118480771</v>
+      </c>
+      <c r="N19" s="7">
+        <v>-0.16617523343500268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.31428300138116128</v>
+      </c>
+      <c r="C20" s="7">
+        <v>-4.2044654275231463E-2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>-8.5174700942892961E-3</v>
+      </c>
+      <c r="E20" s="7">
+        <v>-5.0165687270065561E-2</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.14932347806729435</v>
+      </c>
+      <c r="G20" s="7">
+        <v>-0.73745616281796822</v>
+      </c>
+      <c r="H20" s="7">
+        <v>-0.20752948453913575</v>
+      </c>
+      <c r="I20" s="7">
+        <v>-0.46755251005182863</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0.46812857442016226</v>
+      </c>
+      <c r="K20" s="7">
+        <v>-0.10031515544950917</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0.25509769971958146</v>
+      </c>
+      <c r="M20" s="7">
+        <v>9.782701798047562E-2</v>
+      </c>
+      <c r="N20" s="7">
+        <v>-0.46160888129859212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="8">
+        <v>0.51301757370710233</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0.6339516938177725</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.5210501057189062</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.61611773060659436</v>
+      </c>
+      <c r="F21" s="8">
+        <v>-0.10623145515131185</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0.13856115646859674</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0.26332464578952858</v>
+      </c>
+      <c r="I21" s="8">
+        <v>-0.39023075839299021</v>
+      </c>
+      <c r="J21" s="8">
+        <v>9.8638885194826789E-2</v>
+      </c>
+      <c r="K21" s="8">
+        <v>-0.36209046153744234</v>
+      </c>
+      <c r="L21" s="8">
+        <v>0.14272363905168989</v>
+      </c>
+      <c r="M21" s="8">
+        <v>0.13078921224561363</v>
+      </c>
+      <c r="N21" s="8">
+        <v>1.5308147876120287E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A15:N15"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B2:N14 B16:N21">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>